--- a/UID_numbers.xlsx
+++ b/UID_numbers.xlsx
@@ -567,7 +567,7 @@
       <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="0"/>
   <cols>
     <col width="36" customWidth="1" style="15" min="1" max="1"/>
     <col width="6.88671875" customWidth="1" style="15" min="2" max="2"/>

--- a/UID_numbers.xlsx
+++ b/UID_numbers.xlsx
@@ -567,7 +567,7 @@
       <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col width="36" customWidth="1" style="15" min="1" max="1"/>
     <col width="6.88671875" customWidth="1" style="15" min="2" max="2"/>
@@ -1228,7 +1228,11 @@
       <c r="D31" s="5" t="n">
         <v>301721</v>
       </c>
-      <c r="E31" s="6" t="n"/>
+      <c r="E31" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="21" customHeight="1" s="15">
       <c r="A32" s="3" t="n"/>
@@ -1245,7 +1249,11 @@
       <c r="D32" s="5" t="n">
         <v>301200</v>
       </c>
-      <c r="E32" s="6" t="n"/>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="21" customHeight="1" s="15">
       <c r="A33" s="3" t="n"/>
@@ -1262,7 +1270,11 @@
       <c r="D33" s="5" t="n">
         <v>301517</v>
       </c>
-      <c r="E33" s="6" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="21" customHeight="1" s="15">
       <c r="A34" s="3" t="n"/>
@@ -1279,7 +1291,11 @@
       <c r="D34" s="5" t="n">
         <v>301045</v>
       </c>
-      <c r="E34" s="6" t="n"/>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="21" customHeight="1" s="15">
       <c r="A35" s="3" t="n"/>
@@ -1296,7 +1312,11 @@
       <c r="D35" s="5" t="n">
         <v>301512</v>
       </c>
-      <c r="E35" s="6" t="n"/>
+      <c r="E35" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="21" customHeight="1" s="15">
       <c r="A36" s="3" t="n"/>
@@ -1313,7 +1333,11 @@
       <c r="D36" s="5" t="n">
         <v>301511</v>
       </c>
-      <c r="E36" s="6" t="n"/>
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="21" customHeight="1" s="15">
       <c r="A37" s="3" t="n"/>
@@ -1330,7 +1354,11 @@
       <c r="D37" s="5" t="n">
         <v>301190</v>
       </c>
-      <c r="E37" s="6" t="n"/>
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="21" customHeight="1" s="15">
       <c r="A38" s="3" t="n"/>
@@ -1347,7 +1375,11 @@
       <c r="D38" s="5" t="n">
         <v>300303</v>
       </c>
-      <c r="E38" s="6" t="n"/>
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="21" customHeight="1" s="15">
       <c r="A39" s="3" t="n"/>
@@ -1364,7 +1396,11 @@
       <c r="D39" s="5" t="n">
         <v>300304</v>
       </c>
-      <c r="E39" s="6" t="n"/>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="21" customHeight="1" s="15">
       <c r="A40" s="3" t="n"/>
@@ -1381,7 +1417,11 @@
       <c r="D40" s="5" t="n">
         <v>301787</v>
       </c>
-      <c r="E40" s="6" t="n"/>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="21" customHeight="1" s="15">
       <c r="A41" s="3" t="n"/>
@@ -1398,7 +1438,11 @@
       <c r="D41" s="5" t="n">
         <v>301600</v>
       </c>
-      <c r="E41" s="6" t="n"/>
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="21" customHeight="1" s="15">
       <c r="A42" s="3" t="n"/>
@@ -1415,7 +1459,11 @@
       <c r="D42" s="5" t="n">
         <v>301340</v>
       </c>
-      <c r="E42" s="6" t="n"/>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="21" customHeight="1" s="15">
       <c r="A43" s="3" t="n"/>
@@ -1432,7 +1480,11 @@
       <c r="D43" s="5" t="n">
         <v>300318</v>
       </c>
-      <c r="E43" s="6" t="n"/>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="21" customHeight="1" s="15">
       <c r="A44" s="3" t="n"/>
@@ -1449,7 +1501,11 @@
       <c r="D44" s="5" t="n">
         <v>300342</v>
       </c>
-      <c r="E44" s="6" t="n"/>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="21" customHeight="1" s="15">
       <c r="A45" s="3" t="n"/>
@@ -1466,7 +1522,11 @@
       <c r="D45" s="5" t="n">
         <v>300344</v>
       </c>
-      <c r="E45" s="6" t="n"/>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="21" customHeight="1" s="15">
       <c r="A46" s="3" t="n"/>
@@ -1483,7 +1543,11 @@
       <c r="D46" s="5" t="n">
         <v>300394</v>
       </c>
-      <c r="E46" s="6" t="n"/>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="21" customHeight="1" s="15">
       <c r="A47" s="12" t="n"/>
@@ -1500,7 +1564,11 @@
       <c r="D47" s="10" t="n">
         <v>301238</v>
       </c>
-      <c r="E47" s="11" t="n"/>
+      <c r="E47" s="11" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="21" customHeight="1" s="15">
       <c r="A48" s="3" t="n"/>
@@ -1517,7 +1585,11 @@
       <c r="D48" s="5" t="n">
         <v>301675</v>
       </c>
-      <c r="E48" s="6" t="n"/>
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="21" customHeight="1" s="15">
       <c r="A49" s="3" t="n"/>
@@ -1534,7 +1606,11 @@
       <c r="D49" s="5" t="n">
         <v>301451</v>
       </c>
-      <c r="E49" s="6" t="n"/>
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="21" customHeight="1" s="15">
       <c r="A50" s="3" t="n"/>
@@ -1551,7 +1627,11 @@
       <c r="D50" s="5" t="n">
         <v>301693</v>
       </c>
-      <c r="E50" s="6" t="n"/>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="21" customHeight="1" s="15">
       <c r="A51" s="3" t="n"/>
@@ -1568,7 +1648,11 @@
       <c r="D51" s="5" t="n">
         <v>301404</v>
       </c>
-      <c r="E51" s="6" t="n"/>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="21" customHeight="1" s="15">
       <c r="A52" s="3" t="n"/>
@@ -1585,7 +1669,11 @@
       <c r="D52" s="5" t="n">
         <v>301538</v>
       </c>
-      <c r="E52" s="6" t="n"/>
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="21" customHeight="1" s="15">
       <c r="A53" s="3" t="n"/>
@@ -1602,7 +1690,11 @@
       <c r="D53" s="5" t="n">
         <v>301640</v>
       </c>
-      <c r="E53" s="6" t="n"/>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="21" customHeight="1" s="15">
       <c r="A54" s="3" t="n"/>
@@ -1619,7 +1711,11 @@
       <c r="D54" s="5" t="n">
         <v>301660</v>
       </c>
-      <c r="E54" s="6" t="n"/>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="21" customHeight="1" s="15">
       <c r="A55" s="3" t="n"/>
@@ -1636,7 +1732,11 @@
       <c r="D55" s="5" t="n">
         <v>301528</v>
       </c>
-      <c r="E55" s="6" t="n"/>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="21" customHeight="1" s="15">
       <c r="A56" s="3" t="n"/>
@@ -1653,7 +1753,11 @@
       <c r="D56" s="5" t="n">
         <v>301830</v>
       </c>
-      <c r="E56" s="6" t="n"/>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="21" customHeight="1" s="15">
       <c r="A57" s="3" t="n"/>
@@ -1670,7 +1774,11 @@
       <c r="D57" s="5" t="n">
         <v>301542</v>
       </c>
-      <c r="E57" s="6" t="n"/>
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="21" customHeight="1" s="15">
       <c r="A58" s="3" t="n"/>
@@ -1687,7 +1795,11 @@
       <c r="D58" s="5" t="n">
         <v>301864</v>
       </c>
-      <c r="E58" s="6" t="n"/>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="21" customHeight="1" s="15">
       <c r="A59" s="3" t="n"/>
@@ -1704,7 +1816,11 @@
       <c r="D59" s="5" t="n">
         <v>301173</v>
       </c>
-      <c r="E59" s="6" t="n"/>
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="21" customHeight="1" s="15">
       <c r="A60" s="3" t="n"/>
@@ -1721,7 +1837,11 @@
       <c r="D60" s="5" t="n">
         <v>301205</v>
       </c>
-      <c r="E60" s="6" t="n"/>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="21" customHeight="1" s="15">
       <c r="A61" s="3" t="n"/>
@@ -1738,7 +1858,11 @@
       <c r="D61" s="5" t="n">
         <v>300560</v>
       </c>
-      <c r="E61" s="6" t="n"/>
+      <c r="E61" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="21" customHeight="1" s="15">
       <c r="A62" s="3" t="n"/>
@@ -1755,7 +1879,11 @@
       <c r="D62" s="5" t="n">
         <v>300597</v>
       </c>
-      <c r="E62" s="6" t="n"/>
+      <c r="E62" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="21" customHeight="1" s="15">
       <c r="A63" s="3" t="n"/>
@@ -1772,7 +1900,11 @@
       <c r="D63" s="5" t="n">
         <v>301776</v>
       </c>
-      <c r="E63" s="6" t="n"/>
+      <c r="E63" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="21" customHeight="1" s="15">
       <c r="A64" s="3" t="n"/>
@@ -1789,7 +1921,11 @@
       <c r="D64" s="5" t="n">
         <v>301282</v>
       </c>
-      <c r="E64" s="6" t="n"/>
+      <c r="E64" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="21" customHeight="1" s="15">
       <c r="A65" s="3" t="n"/>
@@ -1806,7 +1942,11 @@
       <c r="D65" s="5" t="n">
         <v>301845</v>
       </c>
-      <c r="E65" s="6" t="n"/>
+      <c r="E65" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="21" customHeight="1" s="15">
       <c r="A66" s="3" t="n"/>
@@ -1823,7 +1963,11 @@
       <c r="D66" s="5" t="n">
         <v>300676</v>
       </c>
-      <c r="E66" s="6" t="n"/>
+      <c r="E66" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="21" customHeight="1" s="15">
       <c r="A67" s="3" t="n"/>
@@ -1840,7 +1984,11 @@
       <c r="D67" s="5" t="n">
         <v>301709</v>
       </c>
-      <c r="E67" s="6" t="n"/>
+      <c r="E67" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="21" customHeight="1" s="15">
       <c r="A68" s="3" t="n"/>
@@ -1857,7 +2005,11 @@
       <c r="D68" s="5" t="n">
         <v>300743</v>
       </c>
-      <c r="E68" s="6" t="n"/>
+      <c r="E68" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="21" customHeight="1" s="15">
       <c r="A69" s="3" t="n"/>
@@ -1874,7 +2026,11 @@
       <c r="D69" s="5" t="n">
         <v>301470</v>
       </c>
-      <c r="E69" s="6" t="n"/>
+      <c r="E69" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="21" customHeight="1" s="15">
       <c r="A70" s="12" t="n"/>
@@ -1891,7 +2047,11 @@
       <c r="D70" s="10" t="n">
         <v>300767</v>
       </c>
-      <c r="E70" s="11" t="n"/>
+      <c r="E70" s="11" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="21" customHeight="1" s="15">
       <c r="A71" s="3" t="n"/>
@@ -1908,7 +2068,11 @@
       <c r="D71" s="5" t="n">
         <v>301066</v>
       </c>
-      <c r="E71" s="6" t="n"/>
+      <c r="E71" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="21" customHeight="1" s="15">
       <c r="A72" s="3" t="n"/>
@@ -1925,7 +2089,11 @@
       <c r="D72" s="5" t="n">
         <v>300781</v>
       </c>
-      <c r="E72" s="6" t="n"/>
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="73" ht="21" customHeight="1" s="15">
       <c r="A73" s="3" t="n"/>
@@ -1942,7 +2110,11 @@
       <c r="D73" s="5" t="n">
         <v>301635</v>
       </c>
-      <c r="E73" s="6" t="n"/>
+      <c r="E73" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="74" ht="21" customHeight="1" s="15">
       <c r="A74" s="3" t="n"/>
@@ -1959,7 +2131,11 @@
       <c r="D74" s="5" t="n">
         <v>301185</v>
       </c>
-      <c r="E74" s="6" t="n"/>
+      <c r="E74" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="75" ht="21" customHeight="1" s="15">
       <c r="A75" s="3" t="n"/>
@@ -1976,7 +2152,11 @@
       <c r="D75" s="5" t="n">
         <v>300833</v>
       </c>
-      <c r="E75" s="6" t="n"/>
+      <c r="E75" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="21" customHeight="1" s="15">
       <c r="A76" s="3" t="n"/>
@@ -1993,7 +2173,11 @@
       <c r="D76" s="5" t="n">
         <v>301237</v>
       </c>
-      <c r="E76" s="6" t="n"/>
+      <c r="E76" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="77" ht="21" customHeight="1" s="15">
       <c r="A77" s="3" t="n"/>
@@ -2010,7 +2194,11 @@
       <c r="D77" s="5" t="n">
         <v>300849</v>
       </c>
-      <c r="E77" s="6" t="n"/>
+      <c r="E77" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="78" ht="21" customHeight="1" s="15">
       <c r="A78" s="3" t="n"/>
@@ -2027,7 +2215,11 @@
       <c r="D78" s="5" t="n">
         <v>300850</v>
       </c>
-      <c r="E78" s="6" t="n"/>
+      <c r="E78" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="21" customHeight="1" s="15">
       <c r="A79" s="3" t="n"/>
@@ -2044,7 +2236,11 @@
       <c r="D79" s="5" t="n">
         <v>300851</v>
       </c>
-      <c r="E79" s="6" t="n"/>
+      <c r="E79" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="21" customHeight="1" s="15">
       <c r="A80" s="3" t="n"/>
@@ -2061,7 +2257,11 @@
       <c r="D80" s="5" t="n">
         <v>300292</v>
       </c>
-      <c r="E80" s="6" t="n"/>
+      <c r="E80" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="21" customHeight="1" s="15">
       <c r="A81" s="3" t="n"/>
@@ -2078,7 +2278,11 @@
       <c r="D81" s="5" t="n">
         <v>301828</v>
       </c>
-      <c r="E81" s="6" t="n"/>
+      <c r="E81" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="21" customHeight="1" s="15">
       <c r="A82" s="3" t="n"/>
@@ -2095,7 +2299,11 @@
       <c r="D82" s="5" t="n">
         <v>300861</v>
       </c>
-      <c r="E82" s="6" t="n"/>
+      <c r="E82" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="83" ht="21" customHeight="1" s="15">
       <c r="A83" s="3" t="n"/>
@@ -2112,7 +2320,11 @@
       <c r="D83" s="5" t="n">
         <v>300881</v>
       </c>
-      <c r="E83" s="6" t="n"/>
+      <c r="E83" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="21" customHeight="1" s="15">
       <c r="A84" s="3" t="n"/>
@@ -2129,7 +2341,11 @@
       <c r="D84" s="5" t="n">
         <v>301671</v>
       </c>
-      <c r="E84" s="6" t="n"/>
+      <c r="E84" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="21" customHeight="1" s="15">
       <c r="A85" s="3" t="n"/>
@@ -2146,7 +2362,11 @@
       <c r="D85" s="5" t="n">
         <v>300308</v>
       </c>
-      <c r="E85" s="6" t="n"/>
+      <c r="E85" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="21" customHeight="1" s="15">
       <c r="A86" s="3" t="n"/>
@@ -2163,7 +2383,11 @@
       <c r="D86" s="5" t="n">
         <v>300468</v>
       </c>
-      <c r="E86" s="6" t="n"/>
+      <c r="E86" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="21" customHeight="1" s="15">
       <c r="A87" s="3" t="n"/>
@@ -2180,7 +2404,11 @@
       <c r="D87" s="5" t="n">
         <v>300723</v>
       </c>
-      <c r="E87" s="6" t="n"/>
+      <c r="E87" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="21" customHeight="1" s="15">
       <c r="A88" s="3" t="n"/>
@@ -2197,7 +2425,11 @@
       <c r="D88" s="5" t="n">
         <v>301648</v>
       </c>
-      <c r="E88" s="6" t="n"/>
+      <c r="E88" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="21" customHeight="1" s="15">
       <c r="A89" s="3" t="n"/>
@@ -2214,7 +2446,11 @@
       <c r="D89" s="5" t="n">
         <v>301698</v>
       </c>
-      <c r="E89" s="6" t="n"/>
+      <c r="E89" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="21" customHeight="1" s="15">
       <c r="A90" s="3" t="n"/>
@@ -2231,7 +2467,11 @@
       <c r="D90" s="5" t="n">
         <v>300265</v>
       </c>
-      <c r="E90" s="6" t="n"/>
+      <c r="E90" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="91" ht="21" customHeight="1" s="15">
       <c r="A91" s="3" t="n"/>
@@ -2248,7 +2488,11 @@
       <c r="D91" s="5" t="n">
         <v>301347</v>
       </c>
-      <c r="E91" s="6" t="n"/>
+      <c r="E91" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="21" customHeight="1" s="15">
       <c r="A92" s="3" t="n"/>
@@ -2265,7 +2509,11 @@
       <c r="D92" s="5" t="n">
         <v>300003</v>
       </c>
-      <c r="E92" s="6" t="n"/>
+      <c r="E92" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="21" customHeight="1" s="15">
       <c r="A93" s="12" t="n"/>
@@ -2282,7 +2530,11 @@
       <c r="D93" s="10" t="n">
         <v>301327</v>
       </c>
-      <c r="E93" s="11" t="n"/>
+      <c r="E93" s="11" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="21" customHeight="1" s="15">
       <c r="A94" s="3" t="n"/>
@@ -2299,7 +2551,11 @@
       <c r="D94" s="5" t="n">
         <v>300298</v>
       </c>
-      <c r="E94" s="6" t="n"/>
+      <c r="E94" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="95" ht="21" customHeight="1" s="15">
       <c r="A95" s="3" t="n"/>
@@ -2316,7 +2572,11 @@
       <c r="D95" s="5" t="n">
         <v>301106</v>
       </c>
-      <c r="E95" s="6" t="n"/>
+      <c r="E95" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="21" customHeight="1" s="15">
       <c r="A96" s="3" t="n"/>
@@ -2333,7 +2593,11 @@
       <c r="D96" s="5" t="n">
         <v>301878</v>
       </c>
-      <c r="E96" s="6" t="n"/>
+      <c r="E96" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="21" customHeight="1" s="15">
       <c r="A97" s="3" t="n"/>
@@ -2350,7 +2614,11 @@
       <c r="D97" s="5" t="n">
         <v>301567</v>
       </c>
-      <c r="E97" s="6" t="n"/>
+      <c r="E97" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="21" customHeight="1" s="15">
       <c r="A98" s="3" t="n"/>
@@ -2367,7 +2635,11 @@
       <c r="D98" s="5" t="n">
         <v>301587</v>
       </c>
-      <c r="E98" s="6" t="n"/>
+      <c r="E98" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="21" customHeight="1" s="15">
       <c r="A99" s="3" t="n"/>
@@ -2384,7 +2656,11 @@
       <c r="D99" s="5" t="n">
         <v>301093</v>
       </c>
-      <c r="E99" s="6" t="n"/>
+      <c r="E99" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="100" ht="21" customHeight="1" s="15">
       <c r="A100" s="3" t="n"/>
@@ -2401,7 +2677,11 @@
       <c r="D100" s="5" t="n">
         <v>300133</v>
       </c>
-      <c r="E100" s="6" t="n"/>
+      <c r="E100" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="101" ht="21" customHeight="1" s="15">
       <c r="A101" s="3" t="n"/>
@@ -2418,7 +2698,11 @@
       <c r="D101" s="5" t="n">
         <v>301500</v>
       </c>
-      <c r="E101" s="6" t="n"/>
+      <c r="E101" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="102" ht="21" customHeight="1" s="15">
       <c r="A102" s="3" t="n"/>
@@ -2435,7 +2719,11 @@
       <c r="D102" s="5" t="n">
         <v>301839</v>
       </c>
-      <c r="E102" s="6" t="n"/>
+      <c r="E102" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="103" ht="21" customHeight="1" s="15">
       <c r="A103" s="3" t="n"/>
@@ -2452,7 +2740,11 @@
       <c r="D103" s="5" t="n">
         <v>300555</v>
       </c>
-      <c r="E103" s="6" t="n"/>
+      <c r="E103" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="104" ht="21" customHeight="1" s="15">
       <c r="A104" s="3" t="n"/>
@@ -2469,7 +2761,11 @@
       <c r="D104" s="5" t="n">
         <v>301686</v>
       </c>
-      <c r="E104" s="6" t="n"/>
+      <c r="E104" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="105" ht="21" customHeight="1" s="15">
       <c r="A105" s="3" t="n"/>
@@ -2486,7 +2782,11 @@
       <c r="D105" s="5" t="n">
         <v>301733</v>
       </c>
-      <c r="E105" s="6" t="n"/>
+      <c r="E105" s="6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
     </row>
     <row r="106" ht="21" customHeight="1" s="15">
       <c r="A106" s="7" t="inlineStr">
@@ -2507,7 +2807,11 @@
       <c r="D106" s="5" t="n">
         <v>300494</v>
       </c>
-      <c r="E106" s="6" t="n"/>
+      <c r="E106" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="107" ht="21" customHeight="1" s="15">
       <c r="A107" s="7" t="inlineStr">
@@ -2528,7 +2832,11 @@
       <c r="D107" s="5" t="n">
         <v>301318</v>
       </c>
-      <c r="E107" s="6" t="n"/>
+      <c r="E107" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="108" ht="21" customHeight="1" s="15">
       <c r="A108" s="7" t="inlineStr">
@@ -2549,7 +2857,11 @@
       <c r="D108" s="5" t="n">
         <v>300749</v>
       </c>
-      <c r="E108" s="6" t="n"/>
+      <c r="E108" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="109" ht="21" customHeight="1" s="15">
       <c r="A109" s="7" t="inlineStr">
@@ -2570,7 +2882,11 @@
       <c r="D109" s="5" t="n">
         <v>300267</v>
       </c>
-      <c r="E109" s="6" t="n"/>
+      <c r="E109" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="110" ht="21" customHeight="1" s="15">
       <c r="A110" s="7" t="inlineStr">
@@ -2591,7 +2907,11 @@
       <c r="D110" s="5" t="n">
         <v>300078</v>
       </c>
-      <c r="E110" s="6" t="n"/>
+      <c r="E110" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="111" ht="21" customHeight="1" s="15">
       <c r="A111" s="7" t="inlineStr">
@@ -2612,7 +2932,11 @@
       <c r="D111" s="5" t="n">
         <v>300094</v>
       </c>
-      <c r="E111" s="6" t="n"/>
+      <c r="E111" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="112" ht="21" customHeight="1" s="15">
       <c r="A112" s="7" t="inlineStr">
@@ -2633,7 +2957,11 @@
       <c r="D112" s="5" t="n">
         <v>300171</v>
       </c>
-      <c r="E112" s="6" t="n"/>
+      <c r="E112" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="113" ht="21" customHeight="1" s="15">
       <c r="A113" s="7" t="inlineStr">
@@ -2654,7 +2982,11 @@
       <c r="D113" s="5" t="n">
         <v>301393</v>
       </c>
-      <c r="E113" s="6" t="n"/>
+      <c r="E113" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="114" ht="21" customHeight="1" s="15">
       <c r="A114" s="7" t="inlineStr">
@@ -2675,7 +3007,11 @@
       <c r="D114" s="5" t="n">
         <v>300451</v>
       </c>
-      <c r="E114" s="6" t="n"/>
+      <c r="E114" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="115" ht="21" customHeight="1" s="15">
       <c r="A115" s="7" t="inlineStr">
@@ -2696,7 +3032,11 @@
       <c r="D115" s="5" t="n">
         <v>301198</v>
       </c>
-      <c r="E115" s="6" t="n"/>
+      <c r="E115" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="116" ht="21" customHeight="1" s="15">
       <c r="A116" s="13" t="inlineStr">
@@ -2717,7 +3057,11 @@
       <c r="D116" s="10" t="n">
         <v>300875</v>
       </c>
-      <c r="E116" s="11" t="n"/>
+      <c r="E116" s="11" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="117" ht="21" customHeight="1" s="15">
       <c r="A117" s="7" t="inlineStr">
@@ -2738,7 +3082,11 @@
       <c r="D117" s="5" t="n">
         <v>300939</v>
       </c>
-      <c r="E117" s="6" t="n"/>
+      <c r="E117" s="6" t="inlineStr">
+        <is>
+          <t>nicht gültig</t>
+        </is>
+      </c>
     </row>
     <row r="118" ht="21" customHeight="1" s="15">
       <c r="A118" s="7" t="inlineStr">
@@ -2759,7 +3107,11 @@
       <c r="D118" s="5" t="n">
         <v>301338</v>
       </c>
-      <c r="E118" s="6" t="n"/>
+      <c r="E118" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="119" ht="21" customHeight="1" s="15">
       <c r="A119" s="7" t="inlineStr">
@@ -2780,7 +3132,11 @@
       <c r="D119" s="5" t="n">
         <v>300207</v>
       </c>
-      <c r="E119" s="6" t="n"/>
+      <c r="E119" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="120" ht="21" customHeight="1" s="15">
       <c r="A120" s="7" t="inlineStr">
@@ -2801,7 +3157,11 @@
       <c r="D120" s="5" t="n">
         <v>300236</v>
       </c>
-      <c r="E120" s="6" t="n"/>
+      <c r="E120" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="121" ht="21" customHeight="1" s="15">
       <c r="A121" s="7" t="inlineStr">
@@ -2822,7 +3182,11 @@
       <c r="D121" s="5" t="n">
         <v>300019</v>
       </c>
-      <c r="E121" s="6" t="n"/>
+      <c r="E121" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="122" ht="21" customHeight="1" s="15">
       <c r="A122" s="7" t="inlineStr">
@@ -2843,7 +3207,11 @@
       <c r="D122" s="5" t="n">
         <v>300105</v>
       </c>
-      <c r="E122" s="6" t="n"/>
+      <c r="E122" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="123" ht="21" customHeight="1" s="15">
       <c r="A123" s="7" t="inlineStr">
@@ -2864,7 +3232,11 @@
       <c r="D123" s="5" t="n">
         <v>301390</v>
       </c>
-      <c r="E123" s="6" t="n"/>
+      <c r="E123" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="124" ht="21" customHeight="1" s="15">
       <c r="A124" s="7" t="inlineStr">
@@ -2885,7 +3257,11 @@
       <c r="D124" s="5" t="n">
         <v>300473</v>
       </c>
-      <c r="E124" s="6" t="n"/>
+      <c r="E124" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="125" ht="21" customHeight="1" s="15">
       <c r="A125" s="7" t="inlineStr">
@@ -2906,7 +3282,11 @@
       <c r="D125" s="5" t="n">
         <v>300537</v>
       </c>
-      <c r="E125" s="6" t="n"/>
+      <c r="E125" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="126" ht="21" customHeight="1" s="15">
       <c r="A126" s="7" t="inlineStr">
@@ -2927,7 +3307,11 @@
       <c r="D126" s="5" t="n">
         <v>300627</v>
       </c>
-      <c r="E126" s="6" t="n"/>
+      <c r="E126" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="127" ht="21" customHeight="1" s="15">
       <c r="A127" s="7" t="inlineStr">
@@ -2948,7 +3332,11 @@
       <c r="D127" s="5" t="n">
         <v>301262</v>
       </c>
-      <c r="E127" s="6" t="n"/>
+      <c r="E127" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="128" ht="21" customHeight="1" s="15">
       <c r="A128" s="7" t="inlineStr">
@@ -2969,7 +3357,11 @@
       <c r="D128" s="5" t="n">
         <v>300815</v>
       </c>
-      <c r="E128" s="6" t="n"/>
+      <c r="E128" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="129" ht="21" customHeight="1" s="15">
       <c r="A129" s="7" t="inlineStr">
@@ -2990,7 +3382,11 @@
       <c r="D129" s="5" t="n">
         <v>300121</v>
       </c>
-      <c r="E129" s="6" t="n"/>
+      <c r="E129" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="130" ht="21" customHeight="1" s="15">
       <c r="A130" s="7" t="inlineStr">
@@ -3011,7 +3407,11 @@
       <c r="D130" s="5" t="n">
         <v>300731</v>
       </c>
-      <c r="E130" s="6" t="n"/>
+      <c r="E130" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="131" ht="21" customHeight="1" s="15">
       <c r="A131" s="7" t="inlineStr">
@@ -3032,7 +3432,11 @@
       <c r="D131" s="5" t="n">
         <v>300358</v>
       </c>
-      <c r="E131" s="6" t="n"/>
+      <c r="E131" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="132" ht="21" customHeight="1" s="15">
       <c r="A132" s="7" t="inlineStr">
@@ -3053,7 +3457,11 @@
       <c r="D132" s="5" t="n">
         <v>300768</v>
       </c>
-      <c r="E132" s="6" t="n"/>
+      <c r="E132" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="133" ht="21" customHeight="1" s="15">
       <c r="A133" s="7" t="inlineStr">
@@ -3074,7 +3482,11 @@
       <c r="D133" s="5" t="n">
         <v>301215</v>
       </c>
-      <c r="E133" s="6" t="n"/>
+      <c r="E133" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="134" ht="21" customHeight="1" s="15">
       <c r="A134" s="7" t="inlineStr">
@@ -3095,7 +3507,11 @@
       <c r="D134" s="5" t="n">
         <v>301618</v>
       </c>
-      <c r="E134" s="6" t="n"/>
+      <c r="E134" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="135" ht="21" customHeight="1" s="15">
       <c r="A135" s="7" t="inlineStr">
@@ -3116,7 +3532,11 @@
       <c r="D135" s="5" t="n">
         <v>300463</v>
       </c>
-      <c r="E135" s="6" t="n"/>
+      <c r="E135" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="136" ht="21" customHeight="1" s="15">
       <c r="A136" s="7" t="inlineStr">
@@ -3137,7 +3557,11 @@
       <c r="D136" s="5" t="n">
         <v>300186</v>
       </c>
-      <c r="E136" s="6" t="n"/>
+      <c r="E136" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="137" ht="21" customHeight="1" s="15">
       <c r="A137" s="7" t="inlineStr">
@@ -3158,7 +3582,11 @@
       <c r="D137" s="5" t="n">
         <v>301723</v>
       </c>
-      <c r="E137" s="6" t="n"/>
+      <c r="E137" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="138" ht="21" customHeight="1" s="15">
       <c r="A138" s="7" t="inlineStr">
@@ -3179,7 +3607,11 @@
       <c r="D138" s="5" t="n">
         <v>300110</v>
       </c>
-      <c r="E138" s="6" t="n"/>
+      <c r="E138" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="139" ht="21" customHeight="1" s="15">
       <c r="A139" s="13" t="inlineStr">
@@ -3200,7 +3632,11 @@
       <c r="D139" s="10" t="n">
         <v>300206</v>
       </c>
-      <c r="E139" s="11" t="n"/>
+      <c r="E139" s="11" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="140" ht="21" customHeight="1" s="15">
       <c r="A140" s="7" t="inlineStr">
@@ -3221,7 +3657,11 @@
       <c r="D140" s="5" t="n">
         <v>300898</v>
       </c>
-      <c r="E140" s="6" t="n"/>
+      <c r="E140" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="141" ht="21" customHeight="1" s="15">
       <c r="A141" s="7" t="inlineStr">
@@ -3242,7 +3682,11 @@
       <c r="D141" s="5" t="n">
         <v>300905</v>
       </c>
-      <c r="E141" s="6" t="n"/>
+      <c r="E141" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="142" ht="21" customHeight="1" s="15">
       <c r="A142" s="7" t="inlineStr">
@@ -3263,7 +3707,11 @@
       <c r="D142" s="5" t="n">
         <v>300606</v>
       </c>
-      <c r="E142" s="6" t="n"/>
+      <c r="E142" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="143" ht="21" customHeight="1" s="15">
       <c r="A143" s="7" t="inlineStr">
@@ -3284,7 +3732,11 @@
       <c r="D143" s="5" t="n">
         <v>301204</v>
       </c>
-      <c r="E143" s="6" t="n"/>
+      <c r="E143" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="144" ht="21" customHeight="1" s="15">
       <c r="A144" s="7" t="inlineStr">
@@ -3305,7 +3757,11 @@
       <c r="D144" s="5" t="n">
         <v>301677</v>
       </c>
-      <c r="E144" s="6" t="n"/>
+      <c r="E144" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="145" ht="21" customHeight="1" s="15">
       <c r="A145" s="7" t="inlineStr">
@@ -3326,7 +3782,11 @@
       <c r="D145" s="5" t="n">
         <v>300409</v>
       </c>
-      <c r="E145" s="6" t="n"/>
+      <c r="E145" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="146" ht="21" customHeight="1" s="15">
       <c r="A146" s="7" t="inlineStr">
@@ -3347,7 +3807,11 @@
       <c r="D146" s="5" t="n">
         <v>301041</v>
       </c>
-      <c r="E146" s="6" t="n"/>
+      <c r="E146" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="147" ht="21" customHeight="1" s="15">
       <c r="A147" s="7" t="inlineStr">
@@ -3368,7 +3832,11 @@
       <c r="D147" s="5" t="n">
         <v>300693</v>
       </c>
-      <c r="E147" s="6" t="n"/>
+      <c r="E147" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="148" ht="21" customHeight="1" s="15">
       <c r="A148" s="7" t="inlineStr">
@@ -3389,7 +3857,11 @@
       <c r="D148" s="5" t="n">
         <v>301377</v>
       </c>
-      <c r="E148" s="6" t="n"/>
+      <c r="E148" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="149" ht="21" customHeight="1" s="15">
       <c r="A149" s="7" t="inlineStr">
@@ -3410,7 +3882,11 @@
       <c r="D149" s="5" t="n">
         <v>301419</v>
       </c>
-      <c r="E149" s="6" t="n"/>
+      <c r="E149" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="150" ht="21" customHeight="1" s="15">
       <c r="A150" s="7" t="inlineStr">
@@ -3431,7 +3907,11 @@
       <c r="D150" s="5" t="n">
         <v>300199</v>
       </c>
-      <c r="E150" s="6" t="n"/>
+      <c r="E150" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="151" ht="21" customHeight="1" s="15">
       <c r="A151" s="7" t="inlineStr">
@@ -3452,7 +3932,11 @@
       <c r="D151" s="5" t="n">
         <v>300472</v>
       </c>
-      <c r="E151" s="6" t="n"/>
+      <c r="E151" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="152" ht="21" customHeight="1" s="15">
       <c r="A152" s="7" t="inlineStr">
@@ -3473,7 +3957,11 @@
       <c r="D152" s="5" t="n">
         <v>300624</v>
       </c>
-      <c r="E152" s="6" t="n"/>
+      <c r="E152" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="153" ht="21" customHeight="1" s="15">
       <c r="A153" s="7" t="inlineStr">
@@ -3494,7 +3982,11 @@
       <c r="D153" s="5" t="n">
         <v>300732</v>
       </c>
-      <c r="E153" s="6" t="n"/>
+      <c r="E153" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="154" ht="21" customHeight="1" s="15">
       <c r="A154" s="7" t="inlineStr">
@@ -3515,7 +4007,11 @@
       <c r="D154" s="5" t="n">
         <v>1300732</v>
       </c>
-      <c r="E154" s="6" t="n"/>
+      <c r="E154" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="155" ht="21" customHeight="1" s="15">
       <c r="A155" s="7" t="inlineStr">
@@ -3536,7 +4032,11 @@
       <c r="D155" s="5" t="n">
         <v>300921</v>
       </c>
-      <c r="E155" s="6" t="n"/>
+      <c r="E155" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="156" ht="21" customHeight="1" s="15">
       <c r="A156" s="7" t="inlineStr">
@@ -3557,7 +4057,11 @@
       <c r="D156" s="5" t="n">
         <v>1300918</v>
       </c>
-      <c r="E156" s="6" t="n"/>
+      <c r="E156" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="157" ht="21" customHeight="1" s="15">
       <c r="A157" s="7" t="inlineStr">
@@ -3578,7 +4082,11 @@
       <c r="D157" s="5" t="n">
         <v>300812</v>
       </c>
-      <c r="E157" s="6" t="n"/>
+      <c r="E157" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="158" ht="21" customHeight="1" s="15">
       <c r="A158" s="7" t="inlineStr">
@@ -3599,7 +4107,11 @@
       <c r="D158" s="5" t="n">
         <v>301553</v>
       </c>
-      <c r="E158" s="6" t="n"/>
+      <c r="E158" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="159" ht="21" customHeight="1" s="15">
       <c r="A159" s="7" t="inlineStr">
@@ -3620,7 +4132,11 @@
       <c r="D159" s="5" t="n">
         <v>300868</v>
       </c>
-      <c r="E159" s="6" t="n"/>
+      <c r="E159" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="160" ht="21" customHeight="1" s="15">
       <c r="A160" s="7" t="inlineStr">
@@ -3641,7 +4157,11 @@
       <c r="D160" s="5" t="n">
         <v>300620</v>
       </c>
-      <c r="E160" s="6" t="n"/>
+      <c r="E160" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="161" ht="21" customHeight="1" s="15">
       <c r="A161" s="7" t="inlineStr">
@@ -3662,7 +4182,11 @@
       <c r="D161" s="5" t="n">
         <v>301518</v>
       </c>
-      <c r="E161" s="6" t="n"/>
+      <c r="E161" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="162" ht="21" customHeight="1" s="15">
       <c r="A162" s="13" t="inlineStr">
@@ -3683,7 +4207,11 @@
       <c r="D162" s="10" t="n">
         <v>300056</v>
       </c>
-      <c r="E162" s="11" t="n"/>
+      <c r="E162" s="11" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="163" ht="21" customHeight="1" s="15">
       <c r="A163" s="7" t="inlineStr">
@@ -3704,7 +4232,11 @@
       <c r="D163" s="5" t="n">
         <v>300710</v>
       </c>
-      <c r="E163" s="6" t="n"/>
+      <c r="E163" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="164" ht="21" customHeight="1" s="15">
       <c r="A164" s="7" t="inlineStr">
@@ -3725,7 +4257,11 @@
       <c r="D164" s="5" t="n">
         <v>300032</v>
       </c>
-      <c r="E164" s="6" t="n"/>
+      <c r="E164" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="165" ht="21" customHeight="1" s="15">
       <c r="A165" s="7" t="inlineStr">
@@ -3746,7 +4282,11 @@
       <c r="D165" s="5" t="n">
         <v>300004</v>
       </c>
-      <c r="E165" s="6" t="n"/>
+      <c r="E165" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="166" ht="21" customHeight="1" s="15">
       <c r="A166" s="7" t="inlineStr">
@@ -3767,7 +4307,11 @@
       <c r="D166" s="5" t="n">
         <v>300837</v>
       </c>
-      <c r="E166" s="6" t="n"/>
+      <c r="E166" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="167" ht="21" customHeight="1" s="15">
       <c r="A167" s="7" t="inlineStr">
@@ -3788,7 +4332,11 @@
       <c r="D167" s="5" t="n">
         <v>301035</v>
       </c>
-      <c r="E167" s="6" t="n"/>
+      <c r="E167" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="168" ht="21" customHeight="1" s="15">
       <c r="A168" s="7" t="inlineStr">
@@ -3809,7 +4357,11 @@
       <c r="D168" s="5" t="n">
         <v>300237</v>
       </c>
-      <c r="E168" s="6" t="n"/>
+      <c r="E168" s="6" t="inlineStr">
+        <is>
+          <t>nicht gültig</t>
+        </is>
+      </c>
     </row>
     <row r="169" ht="21" customHeight="1" s="15">
       <c r="A169" s="7" t="inlineStr">
@@ -3830,7 +4382,11 @@
       <c r="D169" s="5" t="n">
         <v>300109</v>
       </c>
-      <c r="E169" s="6" t="n"/>
+      <c r="E169" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="170" ht="21" customHeight="1" s="15">
       <c r="A170" s="7" t="inlineStr">
@@ -3851,7 +4407,11 @@
       <c r="D170" s="5" t="n">
         <v>300354</v>
       </c>
-      <c r="E170" s="6" t="n"/>
+      <c r="E170" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="171" ht="21" customHeight="1" s="15">
       <c r="A171" s="7" t="inlineStr">
@@ -3872,7 +4432,11 @@
       <c r="D171" s="5" t="n">
         <v>300892</v>
       </c>
-      <c r="E171" s="6" t="n"/>
+      <c r="E171" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="172" ht="21" customHeight="1" s="15">
       <c r="A172" s="7" t="inlineStr">
@@ -3893,7 +4457,11 @@
       <c r="D172" s="5" t="n">
         <v>300391</v>
       </c>
-      <c r="E172" s="6" t="n"/>
+      <c r="E172" s="6" t="inlineStr">
+        <is>
+          <t>nicht gültig</t>
+        </is>
+      </c>
     </row>
     <row r="173" ht="21" customHeight="1" s="15">
       <c r="A173" s="7" t="inlineStr">
@@ -3914,7 +4482,11 @@
       <c r="D173" s="5" t="n">
         <v>300859</v>
       </c>
-      <c r="E173" s="6" t="n"/>
+      <c r="E173" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="174" ht="21" customHeight="1" s="15">
       <c r="A174" s="7" t="inlineStr">
@@ -3935,7 +4507,11 @@
       <c r="D174" s="5" t="n">
         <v>300501</v>
       </c>
-      <c r="E174" s="6" t="n"/>
+      <c r="E174" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="175" ht="21" customHeight="1" s="15">
       <c r="A175" s="7" t="inlineStr">
@@ -3956,7 +4532,11 @@
       <c r="D175" s="5" t="n">
         <v>301458</v>
       </c>
-      <c r="E175" s="6" t="n"/>
+      <c r="E175" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="176" ht="21" customHeight="1" s="15">
       <c r="A176" s="7" t="inlineStr">
@@ -3977,7 +4557,11 @@
       <c r="D176" s="5" t="n">
         <v>301291</v>
       </c>
-      <c r="E176" s="6" t="n"/>
+      <c r="E176" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="177" ht="21" customHeight="1" s="15">
       <c r="A177" s="7" t="inlineStr">
@@ -3998,7 +4582,11 @@
       <c r="D177" s="5" t="n">
         <v>300375</v>
       </c>
-      <c r="E177" s="6" t="n"/>
+      <c r="E177" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="178" ht="21" customHeight="1" s="15">
       <c r="A178" s="7" t="inlineStr">
@@ -4019,7 +4607,11 @@
       <c r="D178" s="5" t="n">
         <v>300838</v>
       </c>
-      <c r="E178" s="6" t="n"/>
+      <c r="E178" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="179" ht="21" customHeight="1" s="15">
       <c r="A179" s="7" t="inlineStr">
@@ -4040,7 +4632,11 @@
       <c r="D179" s="5" t="n">
         <v>300198</v>
       </c>
-      <c r="E179" s="6" t="n"/>
+      <c r="E179" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="180" ht="21" customHeight="1" s="15">
       <c r="A180" s="7" t="inlineStr">
@@ -4061,7 +4657,11 @@
       <c r="D180" s="5" t="n">
         <v>300612</v>
       </c>
-      <c r="E180" s="6" t="n"/>
+      <c r="E180" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="181" ht="21" customHeight="1" s="15">
       <c r="A181" s="7" t="inlineStr">
@@ -4082,7 +4682,11 @@
       <c r="D181" s="5" t="n">
         <v>301281</v>
       </c>
-      <c r="E181" s="6" t="n"/>
+      <c r="E181" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="182" ht="21" customHeight="1" s="15">
       <c r="A182" s="7" t="inlineStr">
@@ -4103,7 +4707,11 @@
       <c r="D182" s="5" t="n">
         <v>300832</v>
       </c>
-      <c r="E182" s="6" t="n"/>
+      <c r="E182" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="183" ht="21" customHeight="1" s="15">
       <c r="A183" s="7" t="inlineStr">
@@ -4124,7 +4732,11 @@
       <c r="D183" s="5" t="n">
         <v>300389</v>
       </c>
-      <c r="E183" s="6" t="n"/>
+      <c r="E183" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="184" ht="21" customHeight="1" s="15">
       <c r="A184" s="7" t="inlineStr">
@@ -4145,7 +4757,11 @@
       <c r="D184" s="5" t="n">
         <v>300064</v>
       </c>
-      <c r="E184" s="6" t="n"/>
+      <c r="E184" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="185" ht="21" customHeight="1" s="15">
       <c r="A185" s="13" t="inlineStr">
@@ -4166,7 +4782,11 @@
       <c r="D185" s="10" t="n">
         <v>301789</v>
       </c>
-      <c r="E185" s="11" t="n"/>
+      <c r="E185" s="11" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="186" ht="21" customHeight="1" s="15">
       <c r="A186" s="7" t="inlineStr">
@@ -4187,7 +4807,11 @@
       <c r="D186" s="5" t="n">
         <v>300167</v>
       </c>
-      <c r="E186" s="6" t="n"/>
+      <c r="E186" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="187" ht="21" customHeight="1" s="15">
       <c r="A187" s="7" t="inlineStr">
@@ -4208,7 +4832,11 @@
       <c r="D187" s="5" t="n">
         <v>300887</v>
       </c>
-      <c r="E187" s="6" t="n"/>
+      <c r="E187" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="188" ht="21" customHeight="1" s="15">
       <c r="A188" s="7" t="inlineStr">
@@ -4229,7 +4857,11 @@
       <c r="D188" s="5" t="n">
         <v>301639</v>
       </c>
-      <c r="E188" s="6" t="n"/>
+      <c r="E188" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="189" ht="21" customHeight="1" s="15">
       <c r="A189" s="7" t="inlineStr">
@@ -4250,7 +4882,11 @@
       <c r="D189" s="5" t="n">
         <v>300938</v>
       </c>
-      <c r="E189" s="6" t="n"/>
+      <c r="E189" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="190" ht="21" customHeight="1" s="15">
       <c r="A190" s="7" t="inlineStr">
@@ -4271,7 +4907,11 @@
       <c r="D190" s="5" t="n">
         <v>301439</v>
       </c>
-      <c r="E190" s="6" t="n"/>
+      <c r="E190" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="191" ht="21" customHeight="1" s="15">
       <c r="A191" s="7" t="inlineStr">
@@ -4292,7 +4932,11 @@
       <c r="D191" s="5" t="n">
         <v>301057</v>
       </c>
-      <c r="E191" s="6" t="n"/>
+      <c r="E191" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="192" ht="21" customHeight="1" s="15">
       <c r="A192" s="7" t="inlineStr">
@@ -4313,7 +4957,11 @@
       <c r="D192" s="5" t="n">
         <v>300010</v>
       </c>
-      <c r="E192" s="6" t="n"/>
+      <c r="E192" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="193" ht="21" customHeight="1" s="15">
       <c r="A193" s="7" t="inlineStr">
@@ -4334,7 +4982,11 @@
       <c r="D193" s="5" t="n">
         <v>301443</v>
       </c>
-      <c r="E193" s="6" t="n"/>
+      <c r="E193" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="194" ht="21" customHeight="1" s="15">
       <c r="A194" s="7" t="inlineStr">
@@ -4355,7 +5007,11 @@
       <c r="D194" s="5" t="n">
         <v>300173</v>
       </c>
-      <c r="E194" s="6" t="n"/>
+      <c r="E194" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="195" ht="21" customHeight="1" s="15">
       <c r="A195" s="7" t="inlineStr">
@@ -4376,7 +5032,11 @@
       <c r="D195" s="5" t="n">
         <v>300009</v>
       </c>
-      <c r="E195" s="6" t="n"/>
+      <c r="E195" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="196" ht="21" customHeight="1" s="15">
       <c r="A196" s="7" t="inlineStr">
@@ -4397,7 +5057,11 @@
       <c r="D196" s="5" t="n">
         <v>300865</v>
       </c>
-      <c r="E196" s="6" t="n"/>
+      <c r="E196" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="197" ht="21" customHeight="1" s="15">
       <c r="A197" s="7" t="inlineStr">
@@ -4418,7 +5082,11 @@
       <c r="D197" s="5" t="n">
         <v>300120</v>
       </c>
-      <c r="E197" s="6" t="n"/>
+      <c r="E197" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="198" ht="21" customHeight="1" s="15">
       <c r="A198" s="7" t="inlineStr">
@@ -4439,7 +5107,11 @@
       <c r="D198" s="5" t="n">
         <v>301398</v>
       </c>
-      <c r="E198" s="6" t="n"/>
+      <c r="E198" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="199" ht="21" customHeight="1" s="15">
       <c r="A199" s="7" t="inlineStr">
@@ -4460,7 +5132,11 @@
       <c r="D199" s="5" t="n">
         <v>300600</v>
       </c>
-      <c r="E199" s="6" t="n"/>
+      <c r="E199" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="200" ht="21" customHeight="1" s="15">
       <c r="A200" s="7" t="inlineStr">
@@ -4481,7 +5157,11 @@
       <c r="D200" s="5" t="n">
         <v>300842</v>
       </c>
-      <c r="E200" s="6" t="n"/>
+      <c r="E200" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="201" ht="21" customHeight="1" s="15">
       <c r="A201" s="7" t="inlineStr">

--- a/UID_numbers.xlsx
+++ b/UID_numbers.xlsx
@@ -3932,11 +3932,7 @@
       <c r="D151" s="5" t="n">
         <v>300472</v>
       </c>
-      <c r="E151" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E151" s="6" t="n"/>
     </row>
     <row r="152" ht="21" customHeight="1" s="15">
       <c r="A152" s="7" t="inlineStr">
@@ -3957,11 +3953,7 @@
       <c r="D152" s="5" t="n">
         <v>300624</v>
       </c>
-      <c r="E152" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E152" s="6" t="n"/>
     </row>
     <row r="153" ht="21" customHeight="1" s="15">
       <c r="A153" s="7" t="inlineStr">
@@ -3982,11 +3974,7 @@
       <c r="D153" s="5" t="n">
         <v>300732</v>
       </c>
-      <c r="E153" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E153" s="6" t="n"/>
     </row>
     <row r="154" ht="21" customHeight="1" s="15">
       <c r="A154" s="7" t="inlineStr">
@@ -4007,11 +3995,7 @@
       <c r="D154" s="5" t="n">
         <v>1300732</v>
       </c>
-      <c r="E154" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E154" s="6" t="n"/>
     </row>
     <row r="155" ht="21" customHeight="1" s="15">
       <c r="A155" s="7" t="inlineStr">
@@ -4032,11 +4016,7 @@
       <c r="D155" s="5" t="n">
         <v>300921</v>
       </c>
-      <c r="E155" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E155" s="6" t="n"/>
     </row>
     <row r="156" ht="21" customHeight="1" s="15">
       <c r="A156" s="7" t="inlineStr">
@@ -4057,11 +4037,7 @@
       <c r="D156" s="5" t="n">
         <v>1300918</v>
       </c>
-      <c r="E156" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E156" s="6" t="n"/>
     </row>
     <row r="157" ht="21" customHeight="1" s="15">
       <c r="A157" s="7" t="inlineStr">
@@ -4082,11 +4058,7 @@
       <c r="D157" s="5" t="n">
         <v>300812</v>
       </c>
-      <c r="E157" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E157" s="6" t="n"/>
     </row>
     <row r="158" ht="21" customHeight="1" s="15">
       <c r="A158" s="7" t="inlineStr">
@@ -4107,11 +4079,7 @@
       <c r="D158" s="5" t="n">
         <v>301553</v>
       </c>
-      <c r="E158" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E158" s="6" t="n"/>
     </row>
     <row r="159" ht="21" customHeight="1" s="15">
       <c r="A159" s="7" t="inlineStr">
@@ -4132,11 +4100,7 @@
       <c r="D159" s="5" t="n">
         <v>300868</v>
       </c>
-      <c r="E159" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E159" s="6" t="n"/>
     </row>
     <row r="160" ht="21" customHeight="1" s="15">
       <c r="A160" s="7" t="inlineStr">
@@ -4157,11 +4121,7 @@
       <c r="D160" s="5" t="n">
         <v>300620</v>
       </c>
-      <c r="E160" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E160" s="6" t="n"/>
     </row>
     <row r="161" ht="21" customHeight="1" s="15">
       <c r="A161" s="7" t="inlineStr">
@@ -4182,11 +4142,7 @@
       <c r="D161" s="5" t="n">
         <v>301518</v>
       </c>
-      <c r="E161" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E161" s="6" t="n"/>
     </row>
     <row r="162" ht="21" customHeight="1" s="15">
       <c r="A162" s="13" t="inlineStr">
@@ -4207,11 +4163,7 @@
       <c r="D162" s="10" t="n">
         <v>300056</v>
       </c>
-      <c r="E162" s="11" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E162" s="11" t="n"/>
     </row>
     <row r="163" ht="21" customHeight="1" s="15">
       <c r="A163" s="7" t="inlineStr">
@@ -4232,11 +4184,7 @@
       <c r="D163" s="5" t="n">
         <v>300710</v>
       </c>
-      <c r="E163" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E163" s="6" t="n"/>
     </row>
     <row r="164" ht="21" customHeight="1" s="15">
       <c r="A164" s="7" t="inlineStr">
@@ -4257,11 +4205,7 @@
       <c r="D164" s="5" t="n">
         <v>300032</v>
       </c>
-      <c r="E164" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E164" s="6" t="n"/>
     </row>
     <row r="165" ht="21" customHeight="1" s="15">
       <c r="A165" s="7" t="inlineStr">
@@ -4282,11 +4226,7 @@
       <c r="D165" s="5" t="n">
         <v>300004</v>
       </c>
-      <c r="E165" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E165" s="6" t="n"/>
     </row>
     <row r="166" ht="21" customHeight="1" s="15">
       <c r="A166" s="7" t="inlineStr">
@@ -4307,11 +4247,7 @@
       <c r="D166" s="5" t="n">
         <v>300837</v>
       </c>
-      <c r="E166" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E166" s="6" t="n"/>
     </row>
     <row r="167" ht="21" customHeight="1" s="15">
       <c r="A167" s="7" t="inlineStr">
@@ -4332,11 +4268,7 @@
       <c r="D167" s="5" t="n">
         <v>301035</v>
       </c>
-      <c r="E167" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E167" s="6" t="n"/>
     </row>
     <row r="168" ht="21" customHeight="1" s="15">
       <c r="A168" s="7" t="inlineStr">
@@ -4357,11 +4289,7 @@
       <c r="D168" s="5" t="n">
         <v>300237</v>
       </c>
-      <c r="E168" s="6" t="inlineStr">
-        <is>
-          <t>nicht gültig</t>
-        </is>
-      </c>
+      <c r="E168" s="6" t="n"/>
     </row>
     <row r="169" ht="21" customHeight="1" s="15">
       <c r="A169" s="7" t="inlineStr">
@@ -4382,11 +4310,7 @@
       <c r="D169" s="5" t="n">
         <v>300109</v>
       </c>
-      <c r="E169" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E169" s="6" t="n"/>
     </row>
     <row r="170" ht="21" customHeight="1" s="15">
       <c r="A170" s="7" t="inlineStr">
@@ -4407,11 +4331,7 @@
       <c r="D170" s="5" t="n">
         <v>300354</v>
       </c>
-      <c r="E170" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E170" s="6" t="n"/>
     </row>
     <row r="171" ht="21" customHeight="1" s="15">
       <c r="A171" s="7" t="inlineStr">
@@ -4432,11 +4352,7 @@
       <c r="D171" s="5" t="n">
         <v>300892</v>
       </c>
-      <c r="E171" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E171" s="6" t="n"/>
     </row>
     <row r="172" ht="21" customHeight="1" s="15">
       <c r="A172" s="7" t="inlineStr">
@@ -4457,11 +4373,7 @@
       <c r="D172" s="5" t="n">
         <v>300391</v>
       </c>
-      <c r="E172" s="6" t="inlineStr">
-        <is>
-          <t>nicht gültig</t>
-        </is>
-      </c>
+      <c r="E172" s="6" t="n"/>
     </row>
     <row r="173" ht="21" customHeight="1" s="15">
       <c r="A173" s="7" t="inlineStr">
@@ -4482,11 +4394,7 @@
       <c r="D173" s="5" t="n">
         <v>300859</v>
       </c>
-      <c r="E173" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E173" s="6" t="n"/>
     </row>
     <row r="174" ht="21" customHeight="1" s="15">
       <c r="A174" s="7" t="inlineStr">
@@ -4507,11 +4415,7 @@
       <c r="D174" s="5" t="n">
         <v>300501</v>
       </c>
-      <c r="E174" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E174" s="6" t="n"/>
     </row>
     <row r="175" ht="21" customHeight="1" s="15">
       <c r="A175" s="7" t="inlineStr">
@@ -4532,11 +4436,7 @@
       <c r="D175" s="5" t="n">
         <v>301458</v>
       </c>
-      <c r="E175" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E175" s="6" t="n"/>
     </row>
     <row r="176" ht="21" customHeight="1" s="15">
       <c r="A176" s="7" t="inlineStr">
@@ -4557,11 +4457,7 @@
       <c r="D176" s="5" t="n">
         <v>301291</v>
       </c>
-      <c r="E176" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E176" s="6" t="n"/>
     </row>
     <row r="177" ht="21" customHeight="1" s="15">
       <c r="A177" s="7" t="inlineStr">
@@ -4582,11 +4478,7 @@
       <c r="D177" s="5" t="n">
         <v>300375</v>
       </c>
-      <c r="E177" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E177" s="6" t="n"/>
     </row>
     <row r="178" ht="21" customHeight="1" s="15">
       <c r="A178" s="7" t="inlineStr">
@@ -4607,11 +4499,7 @@
       <c r="D178" s="5" t="n">
         <v>300838</v>
       </c>
-      <c r="E178" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E178" s="6" t="n"/>
     </row>
     <row r="179" ht="21" customHeight="1" s="15">
       <c r="A179" s="7" t="inlineStr">
@@ -4632,11 +4520,7 @@
       <c r="D179" s="5" t="n">
         <v>300198</v>
       </c>
-      <c r="E179" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E179" s="6" t="n"/>
     </row>
     <row r="180" ht="21" customHeight="1" s="15">
       <c r="A180" s="7" t="inlineStr">
@@ -4657,11 +4541,7 @@
       <c r="D180" s="5" t="n">
         <v>300612</v>
       </c>
-      <c r="E180" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E180" s="6" t="n"/>
     </row>
     <row r="181" ht="21" customHeight="1" s="15">
       <c r="A181" s="7" t="inlineStr">
@@ -4682,11 +4562,7 @@
       <c r="D181" s="5" t="n">
         <v>301281</v>
       </c>
-      <c r="E181" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E181" s="6" t="n"/>
     </row>
     <row r="182" ht="21" customHeight="1" s="15">
       <c r="A182" s="7" t="inlineStr">
@@ -4707,11 +4583,7 @@
       <c r="D182" s="5" t="n">
         <v>300832</v>
       </c>
-      <c r="E182" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E182" s="6" t="n"/>
     </row>
     <row r="183" ht="21" customHeight="1" s="15">
       <c r="A183" s="7" t="inlineStr">
@@ -4732,11 +4604,7 @@
       <c r="D183" s="5" t="n">
         <v>300389</v>
       </c>
-      <c r="E183" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E183" s="6" t="n"/>
     </row>
     <row r="184" ht="21" customHeight="1" s="15">
       <c r="A184" s="7" t="inlineStr">
@@ -4757,11 +4625,7 @@
       <c r="D184" s="5" t="n">
         <v>300064</v>
       </c>
-      <c r="E184" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E184" s="6" t="n"/>
     </row>
     <row r="185" ht="21" customHeight="1" s="15">
       <c r="A185" s="13" t="inlineStr">
@@ -4782,11 +4646,7 @@
       <c r="D185" s="10" t="n">
         <v>301789</v>
       </c>
-      <c r="E185" s="11" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E185" s="11" t="n"/>
     </row>
     <row r="186" ht="21" customHeight="1" s="15">
       <c r="A186" s="7" t="inlineStr">
@@ -4807,11 +4667,7 @@
       <c r="D186" s="5" t="n">
         <v>300167</v>
       </c>
-      <c r="E186" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E186" s="6" t="n"/>
     </row>
     <row r="187" ht="21" customHeight="1" s="15">
       <c r="A187" s="7" t="inlineStr">
@@ -4832,11 +4688,7 @@
       <c r="D187" s="5" t="n">
         <v>300887</v>
       </c>
-      <c r="E187" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E187" s="6" t="n"/>
     </row>
     <row r="188" ht="21" customHeight="1" s="15">
       <c r="A188" s="7" t="inlineStr">
@@ -4857,11 +4709,7 @@
       <c r="D188" s="5" t="n">
         <v>301639</v>
       </c>
-      <c r="E188" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E188" s="6" t="n"/>
     </row>
     <row r="189" ht="21" customHeight="1" s="15">
       <c r="A189" s="7" t="inlineStr">
@@ -4882,11 +4730,7 @@
       <c r="D189" s="5" t="n">
         <v>300938</v>
       </c>
-      <c r="E189" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E189" s="6" t="n"/>
     </row>
     <row r="190" ht="21" customHeight="1" s="15">
       <c r="A190" s="7" t="inlineStr">
@@ -4907,11 +4751,7 @@
       <c r="D190" s="5" t="n">
         <v>301439</v>
       </c>
-      <c r="E190" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E190" s="6" t="n"/>
     </row>
     <row r="191" ht="21" customHeight="1" s="15">
       <c r="A191" s="7" t="inlineStr">
@@ -4932,11 +4772,7 @@
       <c r="D191" s="5" t="n">
         <v>301057</v>
       </c>
-      <c r="E191" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E191" s="6" t="n"/>
     </row>
     <row r="192" ht="21" customHeight="1" s="15">
       <c r="A192" s="7" t="inlineStr">
@@ -4957,11 +4793,7 @@
       <c r="D192" s="5" t="n">
         <v>300010</v>
       </c>
-      <c r="E192" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E192" s="6" t="n"/>
     </row>
     <row r="193" ht="21" customHeight="1" s="15">
       <c r="A193" s="7" t="inlineStr">
@@ -4982,11 +4814,7 @@
       <c r="D193" s="5" t="n">
         <v>301443</v>
       </c>
-      <c r="E193" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E193" s="6" t="n"/>
     </row>
     <row r="194" ht="21" customHeight="1" s="15">
       <c r="A194" s="7" t="inlineStr">
@@ -5007,11 +4835,7 @@
       <c r="D194" s="5" t="n">
         <v>300173</v>
       </c>
-      <c r="E194" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E194" s="6" t="n"/>
     </row>
     <row r="195" ht="21" customHeight="1" s="15">
       <c r="A195" s="7" t="inlineStr">
@@ -5032,11 +4856,7 @@
       <c r="D195" s="5" t="n">
         <v>300009</v>
       </c>
-      <c r="E195" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E195" s="6" t="n"/>
     </row>
     <row r="196" ht="21" customHeight="1" s="15">
       <c r="A196" s="7" t="inlineStr">
@@ -5057,11 +4877,7 @@
       <c r="D196" s="5" t="n">
         <v>300865</v>
       </c>
-      <c r="E196" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E196" s="6" t="n"/>
     </row>
     <row r="197" ht="21" customHeight="1" s="15">
       <c r="A197" s="7" t="inlineStr">
@@ -5082,11 +4898,7 @@
       <c r="D197" s="5" t="n">
         <v>300120</v>
       </c>
-      <c r="E197" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E197" s="6" t="n"/>
     </row>
     <row r="198" ht="21" customHeight="1" s="15">
       <c r="A198" s="7" t="inlineStr">
@@ -5107,11 +4919,7 @@
       <c r="D198" s="5" t="n">
         <v>301398</v>
       </c>
-      <c r="E198" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E198" s="6" t="n"/>
     </row>
     <row r="199" ht="21" customHeight="1" s="15">
       <c r="A199" s="7" t="inlineStr">
@@ -5132,11 +4940,7 @@
       <c r="D199" s="5" t="n">
         <v>300600</v>
       </c>
-      <c r="E199" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E199" s="6" t="n"/>
     </row>
     <row r="200" ht="21" customHeight="1" s="15">
       <c r="A200" s="7" t="inlineStr">
@@ -5157,11 +4961,7 @@
       <c r="D200" s="5" t="n">
         <v>300842</v>
       </c>
-      <c r="E200" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E200" s="6" t="n"/>
     </row>
     <row r="201" ht="21" customHeight="1" s="15">
       <c r="A201" s="7" t="inlineStr">

--- a/UID_numbers.xlsx
+++ b/UID_numbers.xlsx
@@ -3932,7 +3932,11 @@
       <c r="D151" s="5" t="n">
         <v>300472</v>
       </c>
-      <c r="E151" s="6" t="n"/>
+      <c r="E151" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="152" ht="21" customHeight="1" s="15">
       <c r="A152" s="7" t="inlineStr">
@@ -3953,7 +3957,11 @@
       <c r="D152" s="5" t="n">
         <v>300624</v>
       </c>
-      <c r="E152" s="6" t="n"/>
+      <c r="E152" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="153" ht="21" customHeight="1" s="15">
       <c r="A153" s="7" t="inlineStr">
@@ -3974,7 +3982,11 @@
       <c r="D153" s="5" t="n">
         <v>300732</v>
       </c>
-      <c r="E153" s="6" t="n"/>
+      <c r="E153" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="154" ht="21" customHeight="1" s="15">
       <c r="A154" s="7" t="inlineStr">
@@ -3995,7 +4007,11 @@
       <c r="D154" s="5" t="n">
         <v>1300732</v>
       </c>
-      <c r="E154" s="6" t="n"/>
+      <c r="E154" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="155" ht="21" customHeight="1" s="15">
       <c r="A155" s="7" t="inlineStr">
@@ -4016,7 +4032,11 @@
       <c r="D155" s="5" t="n">
         <v>300921</v>
       </c>
-      <c r="E155" s="6" t="n"/>
+      <c r="E155" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="156" ht="21" customHeight="1" s="15">
       <c r="A156" s="7" t="inlineStr">
@@ -4037,7 +4057,11 @@
       <c r="D156" s="5" t="n">
         <v>1300918</v>
       </c>
-      <c r="E156" s="6" t="n"/>
+      <c r="E156" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="157" ht="21" customHeight="1" s="15">
       <c r="A157" s="7" t="inlineStr">
@@ -4058,7 +4082,11 @@
       <c r="D157" s="5" t="n">
         <v>300812</v>
       </c>
-      <c r="E157" s="6" t="n"/>
+      <c r="E157" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="158" ht="21" customHeight="1" s="15">
       <c r="A158" s="7" t="inlineStr">
@@ -4079,7 +4107,11 @@
       <c r="D158" s="5" t="n">
         <v>301553</v>
       </c>
-      <c r="E158" s="6" t="n"/>
+      <c r="E158" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="159" ht="21" customHeight="1" s="15">
       <c r="A159" s="7" t="inlineStr">
@@ -4100,7 +4132,11 @@
       <c r="D159" s="5" t="n">
         <v>300868</v>
       </c>
-      <c r="E159" s="6" t="n"/>
+      <c r="E159" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="160" ht="21" customHeight="1" s="15">
       <c r="A160" s="7" t="inlineStr">
@@ -4121,7 +4157,11 @@
       <c r="D160" s="5" t="n">
         <v>300620</v>
       </c>
-      <c r="E160" s="6" t="n"/>
+      <c r="E160" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="161" ht="21" customHeight="1" s="15">
       <c r="A161" s="7" t="inlineStr">
@@ -4142,7 +4182,11 @@
       <c r="D161" s="5" t="n">
         <v>301518</v>
       </c>
-      <c r="E161" s="6" t="n"/>
+      <c r="E161" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="162" ht="21" customHeight="1" s="15">
       <c r="A162" s="13" t="inlineStr">
@@ -4163,7 +4207,11 @@
       <c r="D162" s="10" t="n">
         <v>300056</v>
       </c>
-      <c r="E162" s="11" t="n"/>
+      <c r="E162" s="11" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="163" ht="21" customHeight="1" s="15">
       <c r="A163" s="7" t="inlineStr">
@@ -4184,7 +4232,11 @@
       <c r="D163" s="5" t="n">
         <v>300710</v>
       </c>
-      <c r="E163" s="6" t="n"/>
+      <c r="E163" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="164" ht="21" customHeight="1" s="15">
       <c r="A164" s="7" t="inlineStr">
@@ -4205,7 +4257,11 @@
       <c r="D164" s="5" t="n">
         <v>300032</v>
       </c>
-      <c r="E164" s="6" t="n"/>
+      <c r="E164" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="165" ht="21" customHeight="1" s="15">
       <c r="A165" s="7" t="inlineStr">
@@ -4226,7 +4282,11 @@
       <c r="D165" s="5" t="n">
         <v>300004</v>
       </c>
-      <c r="E165" s="6" t="n"/>
+      <c r="E165" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="166" ht="21" customHeight="1" s="15">
       <c r="A166" s="7" t="inlineStr">
@@ -4247,7 +4307,11 @@
       <c r="D166" s="5" t="n">
         <v>300837</v>
       </c>
-      <c r="E166" s="6" t="n"/>
+      <c r="E166" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="167" ht="21" customHeight="1" s="15">
       <c r="A167" s="7" t="inlineStr">
@@ -4268,7 +4332,11 @@
       <c r="D167" s="5" t="n">
         <v>301035</v>
       </c>
-      <c r="E167" s="6" t="n"/>
+      <c r="E167" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="168" ht="21" customHeight="1" s="15">
       <c r="A168" s="7" t="inlineStr">
@@ -4289,7 +4357,11 @@
       <c r="D168" s="5" t="n">
         <v>300237</v>
       </c>
-      <c r="E168" s="6" t="n"/>
+      <c r="E168" s="6" t="inlineStr">
+        <is>
+          <t>nicht gültig</t>
+        </is>
+      </c>
     </row>
     <row r="169" ht="21" customHeight="1" s="15">
       <c r="A169" s="7" t="inlineStr">
@@ -4310,7 +4382,11 @@
       <c r="D169" s="5" t="n">
         <v>300109</v>
       </c>
-      <c r="E169" s="6" t="n"/>
+      <c r="E169" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="170" ht="21" customHeight="1" s="15">
       <c r="A170" s="7" t="inlineStr">
@@ -4331,7 +4407,11 @@
       <c r="D170" s="5" t="n">
         <v>300354</v>
       </c>
-      <c r="E170" s="6" t="n"/>
+      <c r="E170" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="171" ht="21" customHeight="1" s="15">
       <c r="A171" s="7" t="inlineStr">
@@ -4352,7 +4432,11 @@
       <c r="D171" s="5" t="n">
         <v>300892</v>
       </c>
-      <c r="E171" s="6" t="n"/>
+      <c r="E171" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="172" ht="21" customHeight="1" s="15">
       <c r="A172" s="7" t="inlineStr">
@@ -4373,7 +4457,11 @@
       <c r="D172" s="5" t="n">
         <v>300391</v>
       </c>
-      <c r="E172" s="6" t="n"/>
+      <c r="E172" s="6" t="inlineStr">
+        <is>
+          <t>nicht gültig</t>
+        </is>
+      </c>
     </row>
     <row r="173" ht="21" customHeight="1" s="15">
       <c r="A173" s="7" t="inlineStr">
@@ -4394,7 +4482,11 @@
       <c r="D173" s="5" t="n">
         <v>300859</v>
       </c>
-      <c r="E173" s="6" t="n"/>
+      <c r="E173" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="174" ht="21" customHeight="1" s="15">
       <c r="A174" s="7" t="inlineStr">
@@ -4415,7 +4507,11 @@
       <c r="D174" s="5" t="n">
         <v>300501</v>
       </c>
-      <c r="E174" s="6" t="n"/>
+      <c r="E174" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="175" ht="21" customHeight="1" s="15">
       <c r="A175" s="7" t="inlineStr">
@@ -4436,7 +4532,11 @@
       <c r="D175" s="5" t="n">
         <v>301458</v>
       </c>
-      <c r="E175" s="6" t="n"/>
+      <c r="E175" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="176" ht="21" customHeight="1" s="15">
       <c r="A176" s="7" t="inlineStr">
@@ -4457,7 +4557,11 @@
       <c r="D176" s="5" t="n">
         <v>301291</v>
       </c>
-      <c r="E176" s="6" t="n"/>
+      <c r="E176" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="177" ht="21" customHeight="1" s="15">
       <c r="A177" s="7" t="inlineStr">
@@ -4478,7 +4582,11 @@
       <c r="D177" s="5" t="n">
         <v>300375</v>
       </c>
-      <c r="E177" s="6" t="n"/>
+      <c r="E177" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="178" ht="21" customHeight="1" s="15">
       <c r="A178" s="7" t="inlineStr">
@@ -4499,7 +4607,11 @@
       <c r="D178" s="5" t="n">
         <v>300838</v>
       </c>
-      <c r="E178" s="6" t="n"/>
+      <c r="E178" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="179" ht="21" customHeight="1" s="15">
       <c r="A179" s="7" t="inlineStr">
@@ -4520,7 +4632,11 @@
       <c r="D179" s="5" t="n">
         <v>300198</v>
       </c>
-      <c r="E179" s="6" t="n"/>
+      <c r="E179" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="180" ht="21" customHeight="1" s="15">
       <c r="A180" s="7" t="inlineStr">
@@ -4541,7 +4657,11 @@
       <c r="D180" s="5" t="n">
         <v>300612</v>
       </c>
-      <c r="E180" s="6" t="n"/>
+      <c r="E180" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="181" ht="21" customHeight="1" s="15">
       <c r="A181" s="7" t="inlineStr">
@@ -4562,7 +4682,11 @@
       <c r="D181" s="5" t="n">
         <v>301281</v>
       </c>
-      <c r="E181" s="6" t="n"/>
+      <c r="E181" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="182" ht="21" customHeight="1" s="15">
       <c r="A182" s="7" t="inlineStr">
@@ -4583,7 +4707,11 @@
       <c r="D182" s="5" t="n">
         <v>300832</v>
       </c>
-      <c r="E182" s="6" t="n"/>
+      <c r="E182" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="183" ht="21" customHeight="1" s="15">
       <c r="A183" s="7" t="inlineStr">
@@ -4604,7 +4732,11 @@
       <c r="D183" s="5" t="n">
         <v>300389</v>
       </c>
-      <c r="E183" s="6" t="n"/>
+      <c r="E183" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="184" ht="21" customHeight="1" s="15">
       <c r="A184" s="7" t="inlineStr">
@@ -4625,7 +4757,11 @@
       <c r="D184" s="5" t="n">
         <v>300064</v>
       </c>
-      <c r="E184" s="6" t="n"/>
+      <c r="E184" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="185" ht="21" customHeight="1" s="15">
       <c r="A185" s="13" t="inlineStr">
@@ -4646,7 +4782,11 @@
       <c r="D185" s="10" t="n">
         <v>301789</v>
       </c>
-      <c r="E185" s="11" t="n"/>
+      <c r="E185" s="11" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="186" ht="21" customHeight="1" s="15">
       <c r="A186" s="7" t="inlineStr">
@@ -4667,7 +4807,11 @@
       <c r="D186" s="5" t="n">
         <v>300167</v>
       </c>
-      <c r="E186" s="6" t="n"/>
+      <c r="E186" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="187" ht="21" customHeight="1" s="15">
       <c r="A187" s="7" t="inlineStr">
@@ -4688,7 +4832,11 @@
       <c r="D187" s="5" t="n">
         <v>300887</v>
       </c>
-      <c r="E187" s="6" t="n"/>
+      <c r="E187" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="188" ht="21" customHeight="1" s="15">
       <c r="A188" s="7" t="inlineStr">
@@ -4709,7 +4857,11 @@
       <c r="D188" s="5" t="n">
         <v>301639</v>
       </c>
-      <c r="E188" s="6" t="n"/>
+      <c r="E188" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="189" ht="21" customHeight="1" s="15">
       <c r="A189" s="7" t="inlineStr">
@@ -4730,7 +4882,11 @@
       <c r="D189" s="5" t="n">
         <v>300938</v>
       </c>
-      <c r="E189" s="6" t="n"/>
+      <c r="E189" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="190" ht="21" customHeight="1" s="15">
       <c r="A190" s="7" t="inlineStr">
@@ -4751,7 +4907,11 @@
       <c r="D190" s="5" t="n">
         <v>301439</v>
       </c>
-      <c r="E190" s="6" t="n"/>
+      <c r="E190" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="191" ht="21" customHeight="1" s="15">
       <c r="A191" s="7" t="inlineStr">
@@ -4772,7 +4932,11 @@
       <c r="D191" s="5" t="n">
         <v>301057</v>
       </c>
-      <c r="E191" s="6" t="n"/>
+      <c r="E191" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="192" ht="21" customHeight="1" s="15">
       <c r="A192" s="7" t="inlineStr">
@@ -4793,7 +4957,11 @@
       <c r="D192" s="5" t="n">
         <v>300010</v>
       </c>
-      <c r="E192" s="6" t="n"/>
+      <c r="E192" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="193" ht="21" customHeight="1" s="15">
       <c r="A193" s="7" t="inlineStr">
@@ -4814,7 +4982,11 @@
       <c r="D193" s="5" t="n">
         <v>301443</v>
       </c>
-      <c r="E193" s="6" t="n"/>
+      <c r="E193" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="194" ht="21" customHeight="1" s="15">
       <c r="A194" s="7" t="inlineStr">
@@ -4835,7 +5007,11 @@
       <c r="D194" s="5" t="n">
         <v>300173</v>
       </c>
-      <c r="E194" s="6" t="n"/>
+      <c r="E194" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="195" ht="21" customHeight="1" s="15">
       <c r="A195" s="7" t="inlineStr">
@@ -4856,7 +5032,11 @@
       <c r="D195" s="5" t="n">
         <v>300009</v>
       </c>
-      <c r="E195" s="6" t="n"/>
+      <c r="E195" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="196" ht="21" customHeight="1" s="15">
       <c r="A196" s="7" t="inlineStr">
@@ -4877,7 +5057,11 @@
       <c r="D196" s="5" t="n">
         <v>300865</v>
       </c>
-      <c r="E196" s="6" t="n"/>
+      <c r="E196" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="197" ht="21" customHeight="1" s="15">
       <c r="A197" s="7" t="inlineStr">
@@ -4898,7 +5082,11 @@
       <c r="D197" s="5" t="n">
         <v>300120</v>
       </c>
-      <c r="E197" s="6" t="n"/>
+      <c r="E197" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="198" ht="21" customHeight="1" s="15">
       <c r="A198" s="7" t="inlineStr">
@@ -4919,7 +5107,11 @@
       <c r="D198" s="5" t="n">
         <v>301398</v>
       </c>
-      <c r="E198" s="6" t="n"/>
+      <c r="E198" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="199" ht="21" customHeight="1" s="15">
       <c r="A199" s="7" t="inlineStr">
@@ -4940,7 +5132,11 @@
       <c r="D199" s="5" t="n">
         <v>300600</v>
       </c>
-      <c r="E199" s="6" t="n"/>
+      <c r="E199" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="200" ht="21" customHeight="1" s="15">
       <c r="A200" s="7" t="inlineStr">
@@ -4961,7 +5157,11 @@
       <c r="D200" s="5" t="n">
         <v>300842</v>
       </c>
-      <c r="E200" s="6" t="n"/>
+      <c r="E200" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="201" ht="21" customHeight="1" s="15">
       <c r="A201" s="7" t="inlineStr">
@@ -4982,7 +5182,11 @@
       <c r="D201" s="5" t="n">
         <v>301475</v>
       </c>
-      <c r="E201" s="6" t="n"/>
+      <c r="E201" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="202" ht="21" customHeight="1" s="15">
       <c r="A202" s="7" t="inlineStr">
@@ -5003,7 +5207,11 @@
       <c r="D202" s="5" t="n">
         <v>300845</v>
       </c>
-      <c r="E202" s="6" t="n"/>
+      <c r="E202" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="203" ht="21" customHeight="1" s="15">
       <c r="A203" s="7" t="inlineStr">
@@ -5024,7 +5232,11 @@
       <c r="D203" s="5" t="n">
         <v>300680</v>
       </c>
-      <c r="E203" s="6" t="n"/>
+      <c r="E203" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="204" ht="21" customHeight="1" s="15">
       <c r="A204" s="7" t="inlineStr">
@@ -5045,7 +5257,11 @@
       <c r="D204" s="5" t="n">
         <v>300727</v>
       </c>
-      <c r="E204" s="6" t="n"/>
+      <c r="E204" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="205" ht="21" customHeight="1" s="15">
       <c r="A205" s="7" t="inlineStr">
@@ -5066,7 +5282,11 @@
       <c r="D205" s="5" t="n">
         <v>301482</v>
       </c>
-      <c r="E205" s="6" t="n"/>
+      <c r="E205" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="206" ht="21" customHeight="1" s="15">
       <c r="A206" s="7" t="inlineStr">
@@ -5087,7 +5307,11 @@
       <c r="D206" s="5" t="n">
         <v>300415</v>
       </c>
-      <c r="E206" s="6" t="n"/>
+      <c r="E206" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="207" ht="21" customHeight="1" s="15">
       <c r="A207" s="7" t="inlineStr">
@@ -5108,7 +5332,11 @@
       <c r="D207" s="5" t="n">
         <v>300429</v>
       </c>
-      <c r="E207" s="6" t="n"/>
+      <c r="E207" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="208" ht="21" customHeight="1" s="15">
       <c r="A208" s="13" t="inlineStr">
@@ -5129,7 +5357,11 @@
       <c r="D208" s="10" t="n">
         <v>300718</v>
       </c>
-      <c r="E208" s="11" t="n"/>
+      <c r="E208" s="11" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="209" ht="21" customHeight="1" s="15">
       <c r="A209" s="7" t="inlineStr">
@@ -5150,7 +5382,11 @@
       <c r="D209" s="5" t="n">
         <v>301560</v>
       </c>
-      <c r="E209" s="6" t="n"/>
+      <c r="E209" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="210" ht="21" customHeight="1" s="15">
       <c r="A210" s="7" t="inlineStr">
@@ -5171,7 +5407,11 @@
       <c r="D210" s="5" t="n">
         <v>300083</v>
       </c>
-      <c r="E210" s="6" t="n"/>
+      <c r="E210" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="211" ht="21" customHeight="1" s="15">
       <c r="A211" s="7" t="inlineStr">
@@ -5192,7 +5432,11 @@
       <c r="D211" s="5" t="n">
         <v>301623</v>
       </c>
-      <c r="E211" s="6" t="n"/>
+      <c r="E211" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="212" ht="21" customHeight="1" s="15">
       <c r="A212" s="7" t="inlineStr">
@@ -5213,7 +5457,11 @@
       <c r="D212" s="5" t="n">
         <v>301493</v>
       </c>
-      <c r="E212" s="6" t="n"/>
+      <c r="E212" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="213" ht="21" customHeight="1" s="15">
       <c r="A213" s="7" t="inlineStr">
@@ -5234,7 +5482,11 @@
       <c r="D213" s="5" t="n">
         <v>300679</v>
       </c>
-      <c r="E213" s="6" t="n"/>
+      <c r="E213" s="6" t="inlineStr">
+        <is>
+          <t>nicht gültig</t>
+        </is>
+      </c>
     </row>
     <row r="214" ht="21" customHeight="1" s="15">
       <c r="A214" s="7" t="inlineStr">
@@ -5255,7 +5507,11 @@
       <c r="D214" s="5" t="n">
         <v>300807</v>
       </c>
-      <c r="E214" s="6" t="n"/>
+      <c r="E214" s="6" t="inlineStr">
+        <is>
+          <t>nicht gültig</t>
+        </is>
+      </c>
     </row>
     <row r="215" ht="21" customHeight="1" s="15">
       <c r="A215" s="7" t="inlineStr">
@@ -5276,7 +5532,11 @@
       <c r="D215" s="5" t="n">
         <v>300324</v>
       </c>
-      <c r="E215" s="6" t="n"/>
+      <c r="E215" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="216" ht="21" customHeight="1" s="15">
       <c r="A216" s="7" t="inlineStr">
@@ -5297,7 +5557,11 @@
       <c r="D216" s="5" t="n">
         <v>300824</v>
       </c>
-      <c r="E216" s="6" t="n"/>
+      <c r="E216" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="217" ht="21" customHeight="1" s="15">
       <c r="A217" s="7" t="inlineStr">
@@ -5318,7 +5582,11 @@
       <c r="D217" s="5" t="n">
         <v>300217</v>
       </c>
-      <c r="E217" s="6" t="n"/>
+      <c r="E217" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="218" ht="21" customHeight="1" s="15">
       <c r="A218" s="7" t="inlineStr">
@@ -5339,7 +5607,11 @@
       <c r="D218" s="5" t="n">
         <v>301883</v>
       </c>
-      <c r="E218" s="6" t="n"/>
+      <c r="E218" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="219" ht="21" customHeight="1" s="15">
       <c r="A219" s="7" t="inlineStr">
@@ -5360,7 +5632,11 @@
       <c r="D219" s="5" t="n">
         <v>300197</v>
       </c>
-      <c r="E219" s="6" t="n"/>
+      <c r="E219" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="220" ht="21" customHeight="1" s="15">
       <c r="A220" s="7" t="inlineStr">
@@ -5381,7 +5657,11 @@
       <c r="D220" s="5" t="n">
         <v>300411</v>
       </c>
-      <c r="E220" s="6" t="n"/>
+      <c r="E220" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="221" ht="21" customHeight="1" s="15">
       <c r="A221" s="7" t="inlineStr">
@@ -5402,7 +5682,11 @@
       <c r="D221" s="5" t="n">
         <v>300368</v>
       </c>
-      <c r="E221" s="6" t="n"/>
+      <c r="E221" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="222" ht="21" customHeight="1" s="15">
       <c r="A222" s="7" t="inlineStr">
@@ -5423,7 +5707,11 @@
       <c r="D222" s="5" t="n">
         <v>301311</v>
       </c>
-      <c r="E222" s="6" t="n"/>
+      <c r="E222" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="223" ht="21" customHeight="1" s="15">
       <c r="A223" s="7" t="inlineStr">
@@ -5444,7 +5732,11 @@
       <c r="D223" s="5" t="n">
         <v>300317</v>
       </c>
-      <c r="E223" s="6" t="n"/>
+      <c r="E223" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="224" ht="21" customHeight="1" s="15">
       <c r="A224" s="7" t="inlineStr">
@@ -5465,7 +5757,11 @@
       <c r="D224" s="5" t="n">
         <v>301244</v>
       </c>
-      <c r="E224" s="6" t="n"/>
+      <c r="E224" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="225" ht="21" customHeight="1" s="15">
       <c r="A225" s="7" t="inlineStr">
@@ -5486,7 +5782,11 @@
       <c r="D225" s="5" t="n">
         <v>300522</v>
       </c>
-      <c r="E225" s="6" t="n"/>
+      <c r="E225" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="226" ht="21" customHeight="1" s="15">
       <c r="A226" s="7" t="inlineStr">
@@ -5507,7 +5807,11 @@
       <c r="D226" s="5" t="n">
         <v>301284</v>
       </c>
-      <c r="E226" s="6" t="n"/>
+      <c r="E226" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="227" ht="21" customHeight="1" s="15">
       <c r="A227" s="7" t="inlineStr">
@@ -5528,7 +5832,11 @@
       <c r="D227" s="5" t="n">
         <v>301320</v>
       </c>
-      <c r="E227" s="6" t="n"/>
+      <c r="E227" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="228" ht="21" customHeight="1" s="15">
       <c r="A228" s="7" t="inlineStr">
@@ -5549,7 +5857,11 @@
       <c r="D228" s="5" t="n">
         <v>300404</v>
       </c>
-      <c r="E228" s="6" t="n"/>
+      <c r="E228" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="229" ht="21" customHeight="1" s="15">
       <c r="A229" s="7" t="inlineStr">
@@ -5570,7 +5882,11 @@
       <c r="D229" s="5" t="n">
         <v>301332</v>
       </c>
-      <c r="E229" s="6" t="n"/>
+      <c r="E229" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="230" ht="21" customHeight="1" s="15">
       <c r="A230" s="7" t="inlineStr">
@@ -5591,7 +5907,11 @@
       <c r="D230" s="5" t="n">
         <v>301203</v>
       </c>
-      <c r="E230" s="6" t="n"/>
+      <c r="E230" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="231" ht="21" customHeight="1" s="15">
       <c r="A231" s="13" t="inlineStr">
@@ -5612,7 +5932,11 @@
       <c r="D231" s="10" t="n">
         <v>300289</v>
       </c>
-      <c r="E231" s="11" t="n"/>
+      <c r="E231" s="11" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="232" ht="21" customHeight="1" s="15">
       <c r="A232" s="7" t="inlineStr">
@@ -5633,7 +5957,11 @@
       <c r="D232" s="5" t="n">
         <v>300691</v>
       </c>
-      <c r="E232" s="6" t="n"/>
+      <c r="E232" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="233" ht="21" customHeight="1" s="15">
       <c r="A233" s="7" t="inlineStr">
@@ -5654,7 +5982,11 @@
       <c r="D233" s="5" t="n">
         <v>300719</v>
       </c>
-      <c r="E233" s="6" t="n"/>
+      <c r="E233" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="234" ht="21" customHeight="1" s="15">
       <c r="A234" s="7" t="inlineStr">
@@ -5675,7 +6007,11 @@
       <c r="D234" s="5" t="n">
         <v>300645</v>
       </c>
-      <c r="E234" s="6" t="n"/>
+      <c r="E234" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="235" ht="21" customHeight="1" s="15">
       <c r="A235" s="7" t="inlineStr">
@@ -5696,7 +6032,11 @@
       <c r="D235" s="5" t="n">
         <v>300539</v>
       </c>
-      <c r="E235" s="6" t="n"/>
+      <c r="E235" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="236" ht="21" customHeight="1" s="15">
       <c r="A236" s="7" t="inlineStr">
@@ -5717,7 +6057,11 @@
       <c r="D236" s="5" t="n">
         <v>300818</v>
       </c>
-      <c r="E236" s="6" t="n"/>
+      <c r="E236" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="237" ht="21" customHeight="1" s="15">
       <c r="A237" s="7" t="inlineStr">
@@ -5738,7 +6082,11 @@
       <c r="D237" s="5" t="n">
         <v>300238</v>
       </c>
-      <c r="E237" s="6" t="n"/>
+      <c r="E237" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="238" ht="21" customHeight="1" s="15">
       <c r="A238" s="7" t="inlineStr">
@@ -5759,7 +6107,11 @@
       <c r="D238" s="5" t="n">
         <v>300582</v>
       </c>
-      <c r="E238" s="6" t="n"/>
+      <c r="E238" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="239" ht="21" customHeight="1" s="15">
       <c r="A239" s="7" t="inlineStr">
@@ -5780,7 +6132,11 @@
       <c r="D239" s="5" t="n">
         <v>301235</v>
       </c>
-      <c r="E239" s="6" t="n"/>
+      <c r="E239" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="240" ht="21" customHeight="1" s="15">
       <c r="A240" s="7" t="inlineStr">
@@ -5801,7 +6157,11 @@
       <c r="D240" s="5" t="n">
         <v>301221</v>
       </c>
-      <c r="E240" s="6" t="n"/>
+      <c r="E240" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="241" ht="21" customHeight="1" s="15">
       <c r="A241" s="7" t="inlineStr">
@@ -5822,7 +6182,11 @@
       <c r="D241" s="5" t="n">
         <v>300884</v>
       </c>
-      <c r="E241" s="6" t="n"/>
+      <c r="E241" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="242" ht="21" customHeight="1" s="15">
       <c r="A242" s="7" t="inlineStr">
@@ -5843,7 +6207,11 @@
       <c r="D242" s="5" t="n">
         <v>300890</v>
       </c>
-      <c r="E242" s="6" t="n"/>
+      <c r="E242" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="243" ht="21" customHeight="1" s="15">
       <c r="A243" s="7" t="inlineStr">
@@ -5864,7 +6232,11 @@
       <c r="D243" s="5" t="n">
         <v>300024</v>
       </c>
-      <c r="E243" s="6" t="n"/>
+      <c r="E243" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="244" ht="21" customHeight="1" s="15">
       <c r="A244" s="7" t="inlineStr">
@@ -5885,7 +6257,11 @@
       <c r="D244" s="5" t="n">
         <v>300986</v>
       </c>
-      <c r="E244" s="6" t="n"/>
+      <c r="E244" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="245" ht="21" customHeight="1" s="15">
       <c r="A245" s="7" t="inlineStr">
@@ -5906,7 +6282,11 @@
       <c r="D245" s="5" t="n">
         <v>300272</v>
       </c>
-      <c r="E245" s="6" t="n"/>
+      <c r="E245" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="246" ht="21" customHeight="1" s="15">
       <c r="A246" s="7" t="inlineStr">
@@ -5927,7 +6307,11 @@
       <c r="D246" s="5" t="n">
         <v>300286</v>
       </c>
-      <c r="E246" s="6" t="n"/>
+      <c r="E246" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="247" ht="21" customHeight="1" s="15">
       <c r="A247" s="7" t="inlineStr">
@@ -5948,7 +6332,11 @@
       <c r="D247" s="5" t="n">
         <v>301328</v>
       </c>
-      <c r="E247" s="6" t="n"/>
+      <c r="E247" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="248" ht="21" customHeight="1" s="15">
       <c r="A248" s="7" t="inlineStr">
@@ -5969,7 +6357,11 @@
       <c r="D248" s="5" t="n">
         <v>300279</v>
       </c>
-      <c r="E248" s="6" t="n"/>
+      <c r="E248" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="249" ht="21" customHeight="1" s="15">
       <c r="A249" s="7" t="inlineStr">
@@ -5990,7 +6382,11 @@
       <c r="D249" s="5" t="n">
         <v>300285</v>
       </c>
-      <c r="E249" s="6" t="n"/>
+      <c r="E249" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="250" ht="21" customHeight="1" s="15">
       <c r="A250" s="7" t="inlineStr">
@@ -6011,7 +6407,11 @@
       <c r="D250" s="5" t="n">
         <v>300281</v>
       </c>
-      <c r="E250" s="6" t="n"/>
+      <c r="E250" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="251" ht="21" customHeight="1" s="15">
       <c r="A251" s="7" t="inlineStr">
@@ -6032,7 +6432,11 @@
       <c r="D251" s="5" t="n">
         <v>300277</v>
       </c>
-      <c r="E251" s="6" t="n"/>
+      <c r="E251" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="252" ht="21" customHeight="1" s="15">
       <c r="A252" s="7" t="inlineStr">
@@ -6053,7 +6457,11 @@
       <c r="D252" s="5" t="n">
         <v>301449</v>
       </c>
-      <c r="E252" s="6" t="n"/>
+      <c r="E252" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="253" ht="21" customHeight="1" s="15">
       <c r="A253" s="7" t="inlineStr">
@@ -6074,7 +6482,11 @@
       <c r="D253" s="5" t="n">
         <v>300603</v>
       </c>
-      <c r="E253" s="6" t="n"/>
+      <c r="E253" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="254" ht="21" customHeight="1" s="15">
       <c r="A254" s="13" t="inlineStr">
@@ -6095,7 +6507,11 @@
       <c r="D254" s="10" t="n">
         <v>300438</v>
       </c>
-      <c r="E254" s="11" t="n"/>
+      <c r="E254" s="11" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="255" ht="21" customHeight="1" s="15">
       <c r="A255" s="7" t="inlineStr">
@@ -6116,7 +6532,11 @@
       <c r="D255" s="5" t="n">
         <v>300359</v>
       </c>
-      <c r="E255" s="6" t="n"/>
+      <c r="E255" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="256" ht="21" customHeight="1" s="15">
       <c r="A256" s="7" t="inlineStr">
@@ -6137,7 +6557,11 @@
       <c r="D256" s="5" t="n">
         <v>300446</v>
       </c>
-      <c r="E256" s="6" t="n"/>
+      <c r="E256" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="257" ht="21" customHeight="1" s="15">
       <c r="A257" s="7" t="inlineStr">
@@ -6158,7 +6582,11 @@
       <c r="D257" s="5" t="n">
         <v>301288</v>
       </c>
-      <c r="E257" s="6" t="n"/>
+      <c r="E257" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="258" ht="21" customHeight="1" s="15">
       <c r="A258" s="7" t="inlineStr">
@@ -6179,7 +6607,11 @@
       <c r="D258" s="5" t="n">
         <v>300017</v>
       </c>
-      <c r="E258" s="6" t="n"/>
+      <c r="E258" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="259" ht="21" customHeight="1" s="15">
       <c r="A259" s="7" t="inlineStr">
@@ -6200,7 +6632,11 @@
       <c r="D259" s="5" t="n">
         <v>300699</v>
       </c>
-      <c r="E259" s="6" t="n"/>
+      <c r="E259" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="260" ht="21" customHeight="1" s="15">
       <c r="A260" s="7" t="inlineStr">
@@ -6221,7 +6657,11 @@
       <c r="D260" s="5" t="n">
         <v>300080</v>
       </c>
-      <c r="E260" s="6" t="n"/>
+      <c r="E260" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="261" ht="21" customHeight="1" s="15">
       <c r="A261" s="7" t="inlineStr">
@@ -6242,7 +6682,11 @@
       <c r="D261" s="5" t="n">
         <v>300681</v>
       </c>
-      <c r="E261" s="6" t="n"/>
+      <c r="E261" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="262" ht="21" customHeight="1" s="15">
       <c r="A262" s="7" t="inlineStr">
@@ -6263,7 +6707,11 @@
       <c r="D262" s="5" t="n">
         <v>300260</v>
       </c>
-      <c r="E262" s="6" t="n"/>
+      <c r="E262" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="263" ht="21" customHeight="1" s="15">
       <c r="A263" s="7" t="inlineStr">
@@ -6284,7 +6732,11 @@
       <c r="D263" s="5" t="n">
         <v>300502</v>
       </c>
-      <c r="E263" s="6" t="n"/>
+      <c r="E263" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="264" ht="21" customHeight="1" s="15">
       <c r="A264" s="7" t="inlineStr">
@@ -6305,7 +6757,11 @@
       <c r="D264" s="5" t="n">
         <v>301806</v>
       </c>
-      <c r="E264" s="6" t="n"/>
+      <c r="E264" s="6" t="inlineStr">
+        <is>
+          <t>nicht gültig</t>
+        </is>
+      </c>
     </row>
     <row r="265" ht="21" customHeight="1" s="15">
       <c r="A265" s="7" t="inlineStr">
@@ -6326,7 +6782,11 @@
       <c r="D265" s="5" t="n">
         <v>301710</v>
       </c>
-      <c r="E265" s="6" t="n"/>
+      <c r="E265" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="266" ht="21" customHeight="1" s="15">
       <c r="A266" s="7" t="inlineStr">
@@ -6347,7 +6807,11 @@
       <c r="D266" s="5" t="n">
         <v>301731</v>
       </c>
-      <c r="E266" s="6" t="n"/>
+      <c r="E266" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="267" ht="21" customHeight="1" s="15">
       <c r="A267" s="7" t="inlineStr">
@@ -6368,7 +6832,11 @@
       <c r="D267" s="5" t="n">
         <v>300828</v>
       </c>
-      <c r="E267" s="6" t="n"/>
+      <c r="E267" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="268" ht="21" customHeight="1" s="15">
       <c r="A268" s="7" t="inlineStr">
@@ -6389,7 +6857,11 @@
       <c r="D268" s="5" t="n">
         <v>300047</v>
       </c>
-      <c r="E268" s="6" t="n"/>
+      <c r="E268" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="269" ht="21" customHeight="1" s="15">
       <c r="A269" s="7" t="inlineStr">
@@ -6410,7 +6882,11 @@
       <c r="D269" s="5" t="n">
         <v>300461</v>
       </c>
-      <c r="E269" s="6" t="n"/>
+      <c r="E269" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="270" ht="21" customHeight="1" s="15">
       <c r="A270" s="7" t="inlineStr">
@@ -6431,7 +6907,11 @@
       <c r="D270" s="5" t="n">
         <v>300422</v>
       </c>
-      <c r="E270" s="6" t="n"/>
+      <c r="E270" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="271" ht="21" customHeight="1" s="15">
       <c r="A271" s="7" t="inlineStr">
@@ -6452,7 +6932,11 @@
       <c r="D271" s="5" t="n">
         <v>300896</v>
       </c>
-      <c r="E271" s="6" t="n"/>
+      <c r="E271" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="272" ht="21" customHeight="1" s="15">
       <c r="A272" s="7" t="inlineStr">
@@ -6473,7 +6957,11 @@
       <c r="D272" s="5" t="n">
         <v>301643</v>
       </c>
-      <c r="E272" s="6" t="n"/>
+      <c r="E272" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="273" ht="21" customHeight="1" s="15">
       <c r="A273" s="7" t="inlineStr">
@@ -6494,7 +6982,11 @@
       <c r="D273" s="5" t="n">
         <v>300426</v>
       </c>
-      <c r="E273" s="6" t="n"/>
+      <c r="E273" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="274" ht="21" customHeight="1" s="15">
       <c r="A274" s="7" t="inlineStr">
@@ -6515,7 +7007,11 @@
       <c r="D274" s="5" t="n">
         <v>300307</v>
       </c>
-      <c r="E274" s="6" t="n"/>
+      <c r="E274" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="275" ht="21" customHeight="1" s="15">
       <c r="A275" s="7" t="inlineStr">
@@ -6536,7 +7032,11 @@
       <c r="D275" s="5" t="n">
         <v>301634</v>
       </c>
-      <c r="E275" s="6" t="n"/>
+      <c r="E275" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="276" ht="21" customHeight="1" s="15">
       <c r="A276" s="7" t="inlineStr">
@@ -6557,7 +7057,11 @@
       <c r="D276" s="5" t="n">
         <v>301611</v>
       </c>
-      <c r="E276" s="6" t="n"/>
+      <c r="E276" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="277" ht="21" customHeight="1" s="15">
       <c r="A277" s="13" t="inlineStr">
@@ -6578,7 +7082,11 @@
       <c r="D277" s="10" t="n">
         <v>300496</v>
       </c>
-      <c r="E277" s="11" t="n"/>
+      <c r="E277" s="11" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="278" ht="21" customHeight="1" s="15">
       <c r="A278" s="7" t="inlineStr">
@@ -6599,7 +7107,11 @@
       <c r="D278" s="5" t="n">
         <v>300764</v>
       </c>
-      <c r="E278" s="6" t="n"/>
+      <c r="E278" s="6" t="inlineStr">
+        <is>
+          <t>nicht gültig</t>
+        </is>
+      </c>
     </row>
     <row r="279" ht="21" customHeight="1" s="15">
       <c r="A279" s="7" t="inlineStr">
@@ -6620,7 +7132,11 @@
       <c r="D279" s="5" t="n">
         <v>300495</v>
       </c>
-      <c r="E279" s="6" t="n"/>
+      <c r="E279" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="280" ht="21" customHeight="1" s="15">
       <c r="A280" s="7" t="inlineStr">
@@ -6641,7 +7157,11 @@
       <c r="D280" s="5" t="n">
         <v>300678</v>
       </c>
-      <c r="E280" s="6" t="n"/>
+      <c r="E280" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="281" ht="21" customHeight="1" s="15">
       <c r="A281" s="7" t="inlineStr">
@@ -6662,7 +7182,11 @@
       <c r="D281" s="5" t="n">
         <v>300738</v>
       </c>
-      <c r="E281" s="6" t="n"/>
+      <c r="E281" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="282" ht="21" customHeight="1" s="15">
       <c r="A282" s="7" t="inlineStr">
@@ -6683,7 +7207,11 @@
       <c r="D282" s="5" t="n">
         <v>300552</v>
       </c>
-      <c r="E282" s="6" t="n"/>
+      <c r="E282" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="283" ht="21" customHeight="1" s="15">
       <c r="A283" s="7" t="inlineStr">
@@ -6704,7 +7232,11 @@
       <c r="D283" s="5" t="n">
         <v>300725</v>
       </c>
-      <c r="E283" s="6" t="n"/>
+      <c r="E283" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="284" ht="21" customHeight="1" s="15">
       <c r="A284" s="7" t="inlineStr">
@@ -6725,7 +7257,11 @@
       <c r="D284" s="5" t="n">
         <v>300869</v>
       </c>
-      <c r="E284" s="6" t="n"/>
+      <c r="E284" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="285" ht="21" customHeight="1" s="15">
       <c r="A285" s="7" t="inlineStr">
@@ -6746,7 +7282,11 @@
       <c r="D285" s="5" t="n">
         <v>301468</v>
       </c>
-      <c r="E285" s="6" t="n"/>
+      <c r="E285" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="286" ht="21" customHeight="1" s="15">
       <c r="A286" s="7" t="inlineStr">
@@ -6767,7 +7307,11 @@
       <c r="D286" s="5" t="n">
         <v>301065</v>
       </c>
-      <c r="E286" s="6" t="n"/>
+      <c r="E286" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="287" ht="21" customHeight="1" s="15">
       <c r="A287" s="7" t="inlineStr">
@@ -6788,7 +7332,11 @@
       <c r="D287" s="5" t="n">
         <v>300998</v>
       </c>
-      <c r="E287" s="6" t="n"/>
+      <c r="E287" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="288" ht="21" customHeight="1" s="15">
       <c r="A288" s="7" t="inlineStr">
@@ -6809,7 +7357,11 @@
       <c r="D288" s="5" t="n">
         <v>300369</v>
       </c>
-      <c r="E288" s="6" t="n"/>
+      <c r="E288" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="289" ht="21" customHeight="1" s="15">
       <c r="A289" s="7" t="inlineStr">
@@ -6830,7 +7382,11 @@
       <c r="D289" s="5" t="n">
         <v>300070</v>
       </c>
-      <c r="E289" s="6" t="n"/>
+      <c r="E289" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="290" ht="21" customHeight="1" s="15">
       <c r="A290" s="7" t="inlineStr">
@@ -6851,7 +7407,11 @@
       <c r="D290" s="5" t="n">
         <v>300803</v>
       </c>
-      <c r="E290" s="6" t="n"/>
+      <c r="E290" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="291" ht="21" customHeight="1" s="15">
       <c r="A291" s="7" t="inlineStr">
@@ -6872,7 +7432,11 @@
       <c r="D291" s="5" t="n">
         <v>300633</v>
       </c>
-      <c r="E291" s="6" t="n"/>
+      <c r="E291" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="292" ht="21" customHeight="1" s="15">
       <c r="A292" s="7" t="inlineStr">
@@ -6893,7 +7457,11 @@
       <c r="D292" s="5" t="n">
         <v>300613</v>
       </c>
-      <c r="E292" s="6" t="n"/>
+      <c r="E292" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="293" ht="21" customHeight="1" s="15">
       <c r="A293" s="7" t="inlineStr">
@@ -6914,7 +7482,11 @@
       <c r="D293" s="5" t="n">
         <v>300242</v>
       </c>
-      <c r="E293" s="6" t="n"/>
+      <c r="E293" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="294" ht="21" customHeight="1" s="15">
       <c r="A294" s="7" t="inlineStr">
@@ -6935,7 +7507,11 @@
       <c r="D294" s="5" t="n">
         <v>301302</v>
       </c>
-      <c r="E294" s="6" t="n"/>
+      <c r="E294" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="295" ht="21" customHeight="1" s="15">
       <c r="A295" s="7" t="inlineStr">
@@ -6956,7 +7532,11 @@
       <c r="D295" s="5" t="n">
         <v>300662</v>
       </c>
-      <c r="E295" s="6" t="n"/>
+      <c r="E295" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="296" ht="21" customHeight="1" s="15">
       <c r="A296" s="7" t="inlineStr">
@@ -6977,7 +7557,11 @@
       <c r="D296" s="5" t="n">
         <v>301304</v>
       </c>
-      <c r="E296" s="6" t="n"/>
+      <c r="E296" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="297" ht="21" customHeight="1" s="15">
       <c r="A297" s="7" t="inlineStr">
@@ -6998,7 +7582,11 @@
       <c r="D297" s="5" t="n">
         <v>300139</v>
       </c>
-      <c r="E297" s="6" t="n"/>
+      <c r="E297" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="298" ht="21" customHeight="1" s="15">
       <c r="A298" s="7" t="inlineStr">
@@ -7019,7 +7607,11 @@
       <c r="D298" s="5" t="n">
         <v>301085</v>
       </c>
-      <c r="E298" s="6" t="n"/>
+      <c r="E298" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="299" ht="21" customHeight="1" s="15">
       <c r="A299" s="7" t="inlineStr">
@@ -7040,7 +7632,11 @@
       <c r="D299" s="5" t="n">
         <v>300142</v>
       </c>
-      <c r="E299" s="6" t="n"/>
+      <c r="E299" s="6" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="300" ht="21" customHeight="1" s="15">
       <c r="A300" s="13" t="inlineStr">
@@ -7061,7 +7657,11 @@
       <c r="D300" s="10" t="n">
         <v>301414</v>
       </c>
-      <c r="E300" s="11" t="n"/>
+      <c r="E300" s="11" t="inlineStr">
+        <is>
+          <t>gültig</t>
+        </is>
+      </c>
     </row>
     <row r="301" ht="21" customHeight="1" s="15">
       <c r="A301" s="7" t="inlineStr">

--- a/UID_numbers.xlsx
+++ b/UID_numbers.xlsx
@@ -1018,11 +1018,7 @@
       <c r="D21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E21" s="6" t="n"/>
     </row>
     <row r="22" ht="21" customHeight="1" s="15">
       <c r="A22" s="3" t="n"/>
@@ -1039,11 +1035,7 @@
       <c r="D22" s="5" t="n">
         <v>300157</v>
       </c>
-      <c r="E22" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E22" s="6" t="n"/>
     </row>
     <row r="23" ht="21" customHeight="1" s="15">
       <c r="A23" s="3" t="n"/>
@@ -1060,11 +1052,7 @@
       <c r="D23" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E23" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E23" s="6" t="n"/>
     </row>
     <row r="24" ht="21" customHeight="1" s="15">
       <c r="A24" s="12" t="n"/>
@@ -1081,11 +1069,7 @@
       <c r="D24" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="E24" s="11" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E24" s="11" t="n"/>
     </row>
     <row r="25" ht="21" customHeight="1" s="15">
       <c r="A25" s="3" t="n"/>
@@ -1102,11 +1086,7 @@
       <c r="D25" s="5" t="n">
         <v>300162</v>
       </c>
-      <c r="E25" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E25" s="6" t="n"/>
     </row>
     <row r="26" ht="21" customHeight="1" s="15">
       <c r="A26" s="3" t="n"/>
@@ -1123,11 +1103,7 @@
       <c r="D26" s="5" t="n">
         <v>301214</v>
       </c>
-      <c r="E26" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E26" s="6" t="n"/>
     </row>
     <row r="27" ht="21" customHeight="1" s="15">
       <c r="A27" s="3" t="n"/>
@@ -1144,11 +1120,7 @@
       <c r="D27" s="5" t="n">
         <v>301515</v>
       </c>
-      <c r="E27" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E27" s="6" t="n"/>
     </row>
     <row r="28" ht="21" customHeight="1" s="15">
       <c r="A28" s="3" t="n"/>
@@ -1165,11 +1137,7 @@
       <c r="D28" s="5" t="n">
         <v>301401</v>
       </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E28" s="6" t="n"/>
     </row>
     <row r="29" ht="21" customHeight="1" s="15">
       <c r="A29" s="3" t="n"/>
@@ -1186,11 +1154,7 @@
       <c r="D29" s="5" t="n">
         <v>300255</v>
       </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E29" s="6" t="n"/>
     </row>
     <row r="30" ht="21" customHeight="1" s="15">
       <c r="A30" s="3" t="n"/>
@@ -1207,11 +1171,7 @@
       <c r="D30" s="5" t="n">
         <v>301629</v>
       </c>
-      <c r="E30" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E30" s="6" t="n"/>
     </row>
     <row r="31" ht="21" customHeight="1" s="15">
       <c r="A31" s="3" t="n"/>
@@ -1228,11 +1188,7 @@
       <c r="D31" s="5" t="n">
         <v>301721</v>
       </c>
-      <c r="E31" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E31" s="6" t="n"/>
     </row>
     <row r="32" ht="21" customHeight="1" s="15">
       <c r="A32" s="3" t="n"/>
@@ -1249,11 +1205,7 @@
       <c r="D32" s="5" t="n">
         <v>301200</v>
       </c>
-      <c r="E32" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E32" s="6" t="n"/>
     </row>
     <row r="33" ht="21" customHeight="1" s="15">
       <c r="A33" s="3" t="n"/>
@@ -1270,11 +1222,7 @@
       <c r="D33" s="5" t="n">
         <v>301517</v>
       </c>
-      <c r="E33" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E33" s="6" t="n"/>
     </row>
     <row r="34" ht="21" customHeight="1" s="15">
       <c r="A34" s="3" t="n"/>
@@ -1291,11 +1239,7 @@
       <c r="D34" s="5" t="n">
         <v>301045</v>
       </c>
-      <c r="E34" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E34" s="6" t="n"/>
     </row>
     <row r="35" ht="21" customHeight="1" s="15">
       <c r="A35" s="3" t="n"/>
@@ -1312,11 +1256,7 @@
       <c r="D35" s="5" t="n">
         <v>301512</v>
       </c>
-      <c r="E35" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E35" s="6" t="n"/>
     </row>
     <row r="36" ht="21" customHeight="1" s="15">
       <c r="A36" s="3" t="n"/>
@@ -1333,11 +1273,7 @@
       <c r="D36" s="5" t="n">
         <v>301511</v>
       </c>
-      <c r="E36" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E36" s="6" t="n"/>
     </row>
     <row r="37" ht="21" customHeight="1" s="15">
       <c r="A37" s="3" t="n"/>
@@ -1354,11 +1290,7 @@
       <c r="D37" s="5" t="n">
         <v>301190</v>
       </c>
-      <c r="E37" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E37" s="6" t="n"/>
     </row>
     <row r="38" ht="21" customHeight="1" s="15">
       <c r="A38" s="3" t="n"/>
@@ -1375,11 +1307,7 @@
       <c r="D38" s="5" t="n">
         <v>300303</v>
       </c>
-      <c r="E38" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E38" s="6" t="n"/>
     </row>
     <row r="39" ht="21" customHeight="1" s="15">
       <c r="A39" s="3" t="n"/>
@@ -1396,11 +1324,7 @@
       <c r="D39" s="5" t="n">
         <v>300304</v>
       </c>
-      <c r="E39" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E39" s="6" t="n"/>
     </row>
     <row r="40" ht="21" customHeight="1" s="15">
       <c r="A40" s="3" t="n"/>
@@ -1417,11 +1341,7 @@
       <c r="D40" s="5" t="n">
         <v>301787</v>
       </c>
-      <c r="E40" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E40" s="6" t="n"/>
     </row>
     <row r="41" ht="21" customHeight="1" s="15">
       <c r="A41" s="3" t="n"/>
@@ -1438,11 +1358,7 @@
       <c r="D41" s="5" t="n">
         <v>301600</v>
       </c>
-      <c r="E41" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E41" s="6" t="n"/>
     </row>
     <row r="42" ht="21" customHeight="1" s="15">
       <c r="A42" s="3" t="n"/>
@@ -1459,11 +1375,7 @@
       <c r="D42" s="5" t="n">
         <v>301340</v>
       </c>
-      <c r="E42" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E42" s="6" t="n"/>
     </row>
     <row r="43" ht="21" customHeight="1" s="15">
       <c r="A43" s="3" t="n"/>
@@ -1480,11 +1392,7 @@
       <c r="D43" s="5" t="n">
         <v>300318</v>
       </c>
-      <c r="E43" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E43" s="6" t="n"/>
     </row>
     <row r="44" ht="21" customHeight="1" s="15">
       <c r="A44" s="3" t="n"/>
@@ -1501,11 +1409,7 @@
       <c r="D44" s="5" t="n">
         <v>300342</v>
       </c>
-      <c r="E44" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E44" s="6" t="n"/>
     </row>
     <row r="45" ht="21" customHeight="1" s="15">
       <c r="A45" s="3" t="n"/>
@@ -1522,11 +1426,7 @@
       <c r="D45" s="5" t="n">
         <v>300344</v>
       </c>
-      <c r="E45" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E45" s="6" t="n"/>
     </row>
     <row r="46" ht="21" customHeight="1" s="15">
       <c r="A46" s="3" t="n"/>
@@ -1543,11 +1443,7 @@
       <c r="D46" s="5" t="n">
         <v>300394</v>
       </c>
-      <c r="E46" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E46" s="6" t="n"/>
     </row>
     <row r="47" ht="21" customHeight="1" s="15">
       <c r="A47" s="12" t="n"/>
@@ -1564,11 +1460,7 @@
       <c r="D47" s="10" t="n">
         <v>301238</v>
       </c>
-      <c r="E47" s="11" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E47" s="11" t="n"/>
     </row>
     <row r="48" ht="21" customHeight="1" s="15">
       <c r="A48" s="3" t="n"/>
@@ -1585,11 +1477,7 @@
       <c r="D48" s="5" t="n">
         <v>301675</v>
       </c>
-      <c r="E48" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E48" s="6" t="n"/>
     </row>
     <row r="49" ht="21" customHeight="1" s="15">
       <c r="A49" s="3" t="n"/>
@@ -1606,11 +1494,7 @@
       <c r="D49" s="5" t="n">
         <v>301451</v>
       </c>
-      <c r="E49" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E49" s="6" t="n"/>
     </row>
     <row r="50" ht="21" customHeight="1" s="15">
       <c r="A50" s="3" t="n"/>
@@ -1627,11 +1511,7 @@
       <c r="D50" s="5" t="n">
         <v>301693</v>
       </c>
-      <c r="E50" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E50" s="6" t="n"/>
     </row>
     <row r="51" ht="21" customHeight="1" s="15">
       <c r="A51" s="3" t="n"/>
@@ -1648,11 +1528,7 @@
       <c r="D51" s="5" t="n">
         <v>301404</v>
       </c>
-      <c r="E51" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E51" s="6" t="n"/>
     </row>
     <row r="52" ht="21" customHeight="1" s="15">
       <c r="A52" s="3" t="n"/>
@@ -1669,11 +1545,7 @@
       <c r="D52" s="5" t="n">
         <v>301538</v>
       </c>
-      <c r="E52" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E52" s="6" t="n"/>
     </row>
     <row r="53" ht="21" customHeight="1" s="15">
       <c r="A53" s="3" t="n"/>
@@ -1690,11 +1562,7 @@
       <c r="D53" s="5" t="n">
         <v>301640</v>
       </c>
-      <c r="E53" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E53" s="6" t="n"/>
     </row>
     <row r="54" ht="21" customHeight="1" s="15">
       <c r="A54" s="3" t="n"/>
@@ -1711,11 +1579,7 @@
       <c r="D54" s="5" t="n">
         <v>301660</v>
       </c>
-      <c r="E54" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E54" s="6" t="n"/>
     </row>
     <row r="55" ht="21" customHeight="1" s="15">
       <c r="A55" s="3" t="n"/>
@@ -1732,11 +1596,7 @@
       <c r="D55" s="5" t="n">
         <v>301528</v>
       </c>
-      <c r="E55" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E55" s="6" t="n"/>
     </row>
     <row r="56" ht="21" customHeight="1" s="15">
       <c r="A56" s="3" t="n"/>
@@ -1753,11 +1613,7 @@
       <c r="D56" s="5" t="n">
         <v>301830</v>
       </c>
-      <c r="E56" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E56" s="6" t="n"/>
     </row>
     <row r="57" ht="21" customHeight="1" s="15">
       <c r="A57" s="3" t="n"/>
@@ -1774,11 +1630,7 @@
       <c r="D57" s="5" t="n">
         <v>301542</v>
       </c>
-      <c r="E57" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E57" s="6" t="n"/>
     </row>
     <row r="58" ht="21" customHeight="1" s="15">
       <c r="A58" s="3" t="n"/>
@@ -1795,11 +1647,7 @@
       <c r="D58" s="5" t="n">
         <v>301864</v>
       </c>
-      <c r="E58" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E58" s="6" t="n"/>
     </row>
     <row r="59" ht="21" customHeight="1" s="15">
       <c r="A59" s="3" t="n"/>
@@ -1816,11 +1664,7 @@
       <c r="D59" s="5" t="n">
         <v>301173</v>
       </c>
-      <c r="E59" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E59" s="6" t="n"/>
     </row>
     <row r="60" ht="21" customHeight="1" s="15">
       <c r="A60" s="3" t="n"/>
@@ -1837,11 +1681,7 @@
       <c r="D60" s="5" t="n">
         <v>301205</v>
       </c>
-      <c r="E60" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E60" s="6" t="n"/>
     </row>
     <row r="61" ht="21" customHeight="1" s="15">
       <c r="A61" s="3" t="n"/>
@@ -1858,11 +1698,7 @@
       <c r="D61" s="5" t="n">
         <v>300560</v>
       </c>
-      <c r="E61" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E61" s="6" t="n"/>
     </row>
     <row r="62" ht="21" customHeight="1" s="15">
       <c r="A62" s="3" t="n"/>
@@ -1879,11 +1715,7 @@
       <c r="D62" s="5" t="n">
         <v>300597</v>
       </c>
-      <c r="E62" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E62" s="6" t="n"/>
     </row>
     <row r="63" ht="21" customHeight="1" s="15">
       <c r="A63" s="3" t="n"/>
@@ -1900,11 +1732,7 @@
       <c r="D63" s="5" t="n">
         <v>301776</v>
       </c>
-      <c r="E63" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E63" s="6" t="n"/>
     </row>
     <row r="64" ht="21" customHeight="1" s="15">
       <c r="A64" s="3" t="n"/>
@@ -1921,11 +1749,7 @@
       <c r="D64" s="5" t="n">
         <v>301282</v>
       </c>
-      <c r="E64" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E64" s="6" t="n"/>
     </row>
     <row r="65" ht="21" customHeight="1" s="15">
       <c r="A65" s="3" t="n"/>
@@ -1942,11 +1766,7 @@
       <c r="D65" s="5" t="n">
         <v>301845</v>
       </c>
-      <c r="E65" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E65" s="6" t="n"/>
     </row>
     <row r="66" ht="21" customHeight="1" s="15">
       <c r="A66" s="3" t="n"/>
@@ -1963,11 +1783,7 @@
       <c r="D66" s="5" t="n">
         <v>300676</v>
       </c>
-      <c r="E66" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E66" s="6" t="n"/>
     </row>
     <row r="67" ht="21" customHeight="1" s="15">
       <c r="A67" s="3" t="n"/>
@@ -1984,11 +1800,7 @@
       <c r="D67" s="5" t="n">
         <v>301709</v>
       </c>
-      <c r="E67" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E67" s="6" t="n"/>
     </row>
     <row r="68" ht="21" customHeight="1" s="15">
       <c r="A68" s="3" t="n"/>
@@ -2005,11 +1817,7 @@
       <c r="D68" s="5" t="n">
         <v>300743</v>
       </c>
-      <c r="E68" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E68" s="6" t="n"/>
     </row>
     <row r="69" ht="21" customHeight="1" s="15">
       <c r="A69" s="3" t="n"/>
@@ -2026,11 +1834,7 @@
       <c r="D69" s="5" t="n">
         <v>301470</v>
       </c>
-      <c r="E69" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E69" s="6" t="n"/>
     </row>
     <row r="70" ht="21" customHeight="1" s="15">
       <c r="A70" s="12" t="n"/>
@@ -2047,11 +1851,7 @@
       <c r="D70" s="10" t="n">
         <v>300767</v>
       </c>
-      <c r="E70" s="11" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E70" s="11" t="n"/>
     </row>
     <row r="71" ht="21" customHeight="1" s="15">
       <c r="A71" s="3" t="n"/>
@@ -2068,11 +1868,7 @@
       <c r="D71" s="5" t="n">
         <v>301066</v>
       </c>
-      <c r="E71" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E71" s="6" t="n"/>
     </row>
     <row r="72" ht="21" customHeight="1" s="15">
       <c r="A72" s="3" t="n"/>
@@ -2089,11 +1885,7 @@
       <c r="D72" s="5" t="n">
         <v>300781</v>
       </c>
-      <c r="E72" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E72" s="6" t="n"/>
     </row>
     <row r="73" ht="21" customHeight="1" s="15">
       <c r="A73" s="3" t="n"/>
@@ -2110,11 +1902,7 @@
       <c r="D73" s="5" t="n">
         <v>301635</v>
       </c>
-      <c r="E73" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E73" s="6" t="n"/>
     </row>
     <row r="74" ht="21" customHeight="1" s="15">
       <c r="A74" s="3" t="n"/>
@@ -2131,11 +1919,7 @@
       <c r="D74" s="5" t="n">
         <v>301185</v>
       </c>
-      <c r="E74" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E74" s="6" t="n"/>
     </row>
     <row r="75" ht="21" customHeight="1" s="15">
       <c r="A75" s="3" t="n"/>
@@ -2152,11 +1936,7 @@
       <c r="D75" s="5" t="n">
         <v>300833</v>
       </c>
-      <c r="E75" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E75" s="6" t="n"/>
     </row>
     <row r="76" ht="21" customHeight="1" s="15">
       <c r="A76" s="3" t="n"/>
@@ -2173,11 +1953,7 @@
       <c r="D76" s="5" t="n">
         <v>301237</v>
       </c>
-      <c r="E76" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E76" s="6" t="n"/>
     </row>
     <row r="77" ht="21" customHeight="1" s="15">
       <c r="A77" s="3" t="n"/>
@@ -2194,11 +1970,7 @@
       <c r="D77" s="5" t="n">
         <v>300849</v>
       </c>
-      <c r="E77" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E77" s="6" t="n"/>
     </row>
     <row r="78" ht="21" customHeight="1" s="15">
       <c r="A78" s="3" t="n"/>
@@ -2215,11 +1987,7 @@
       <c r="D78" s="5" t="n">
         <v>300850</v>
       </c>
-      <c r="E78" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E78" s="6" t="n"/>
     </row>
     <row r="79" ht="21" customHeight="1" s="15">
       <c r="A79" s="3" t="n"/>
@@ -2236,11 +2004,7 @@
       <c r="D79" s="5" t="n">
         <v>300851</v>
       </c>
-      <c r="E79" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E79" s="6" t="n"/>
     </row>
     <row r="80" ht="21" customHeight="1" s="15">
       <c r="A80" s="3" t="n"/>
@@ -2257,11 +2021,7 @@
       <c r="D80" s="5" t="n">
         <v>300292</v>
       </c>
-      <c r="E80" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E80" s="6" t="n"/>
     </row>
     <row r="81" ht="21" customHeight="1" s="15">
       <c r="A81" s="3" t="n"/>
@@ -2278,11 +2038,7 @@
       <c r="D81" s="5" t="n">
         <v>301828</v>
       </c>
-      <c r="E81" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E81" s="6" t="n"/>
     </row>
     <row r="82" ht="21" customHeight="1" s="15">
       <c r="A82" s="3" t="n"/>
@@ -2299,11 +2055,7 @@
       <c r="D82" s="5" t="n">
         <v>300861</v>
       </c>
-      <c r="E82" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E82" s="6" t="n"/>
     </row>
     <row r="83" ht="21" customHeight="1" s="15">
       <c r="A83" s="3" t="n"/>
@@ -2320,11 +2072,7 @@
       <c r="D83" s="5" t="n">
         <v>300881</v>
       </c>
-      <c r="E83" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E83" s="6" t="n"/>
     </row>
     <row r="84" ht="21" customHeight="1" s="15">
       <c r="A84" s="3" t="n"/>
@@ -2341,11 +2089,7 @@
       <c r="D84" s="5" t="n">
         <v>301671</v>
       </c>
-      <c r="E84" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E84" s="6" t="n"/>
     </row>
     <row r="85" ht="21" customHeight="1" s="15">
       <c r="A85" s="3" t="n"/>
@@ -2362,11 +2106,7 @@
       <c r="D85" s="5" t="n">
         <v>300308</v>
       </c>
-      <c r="E85" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E85" s="6" t="n"/>
     </row>
     <row r="86" ht="21" customHeight="1" s="15">
       <c r="A86" s="3" t="n"/>
@@ -2383,11 +2123,7 @@
       <c r="D86" s="5" t="n">
         <v>300468</v>
       </c>
-      <c r="E86" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E86" s="6" t="n"/>
     </row>
     <row r="87" ht="21" customHeight="1" s="15">
       <c r="A87" s="3" t="n"/>
@@ -2404,11 +2140,7 @@
       <c r="D87" s="5" t="n">
         <v>300723</v>
       </c>
-      <c r="E87" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E87" s="6" t="n"/>
     </row>
     <row r="88" ht="21" customHeight="1" s="15">
       <c r="A88" s="3" t="n"/>
@@ -2425,11 +2157,7 @@
       <c r="D88" s="5" t="n">
         <v>301648</v>
       </c>
-      <c r="E88" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E88" s="6" t="n"/>
     </row>
     <row r="89" ht="21" customHeight="1" s="15">
       <c r="A89" s="3" t="n"/>
@@ -2446,11 +2174,7 @@
       <c r="D89" s="5" t="n">
         <v>301698</v>
       </c>
-      <c r="E89" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E89" s="6" t="n"/>
     </row>
     <row r="90" ht="21" customHeight="1" s="15">
       <c r="A90" s="3" t="n"/>
@@ -2467,11 +2191,7 @@
       <c r="D90" s="5" t="n">
         <v>300265</v>
       </c>
-      <c r="E90" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E90" s="6" t="n"/>
     </row>
     <row r="91" ht="21" customHeight="1" s="15">
       <c r="A91" s="3" t="n"/>
@@ -2488,11 +2208,7 @@
       <c r="D91" s="5" t="n">
         <v>301347</v>
       </c>
-      <c r="E91" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E91" s="6" t="n"/>
     </row>
     <row r="92" ht="21" customHeight="1" s="15">
       <c r="A92" s="3" t="n"/>
@@ -2509,11 +2225,7 @@
       <c r="D92" s="5" t="n">
         <v>300003</v>
       </c>
-      <c r="E92" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E92" s="6" t="n"/>
     </row>
     <row r="93" ht="21" customHeight="1" s="15">
       <c r="A93" s="12" t="n"/>
@@ -2530,11 +2242,7 @@
       <c r="D93" s="10" t="n">
         <v>301327</v>
       </c>
-      <c r="E93" s="11" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E93" s="11" t="n"/>
     </row>
     <row r="94" ht="21" customHeight="1" s="15">
       <c r="A94" s="3" t="n"/>
@@ -2551,11 +2259,7 @@
       <c r="D94" s="5" t="n">
         <v>300298</v>
       </c>
-      <c r="E94" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E94" s="6" t="n"/>
     </row>
     <row r="95" ht="21" customHeight="1" s="15">
       <c r="A95" s="3" t="n"/>
@@ -2572,11 +2276,7 @@
       <c r="D95" s="5" t="n">
         <v>301106</v>
       </c>
-      <c r="E95" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E95" s="6" t="n"/>
     </row>
     <row r="96" ht="21" customHeight="1" s="15">
       <c r="A96" s="3" t="n"/>
@@ -2593,11 +2293,7 @@
       <c r="D96" s="5" t="n">
         <v>301878</v>
       </c>
-      <c r="E96" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E96" s="6" t="n"/>
     </row>
     <row r="97" ht="21" customHeight="1" s="15">
       <c r="A97" s="3" t="n"/>
@@ -2614,11 +2310,7 @@
       <c r="D97" s="5" t="n">
         <v>301567</v>
       </c>
-      <c r="E97" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E97" s="6" t="n"/>
     </row>
     <row r="98" ht="21" customHeight="1" s="15">
       <c r="A98" s="3" t="n"/>
@@ -2635,11 +2327,7 @@
       <c r="D98" s="5" t="n">
         <v>301587</v>
       </c>
-      <c r="E98" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E98" s="6" t="n"/>
     </row>
     <row r="99" ht="21" customHeight="1" s="15">
       <c r="A99" s="3" t="n"/>
@@ -2656,11 +2344,7 @@
       <c r="D99" s="5" t="n">
         <v>301093</v>
       </c>
-      <c r="E99" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E99" s="6" t="n"/>
     </row>
     <row r="100" ht="21" customHeight="1" s="15">
       <c r="A100" s="3" t="n"/>
@@ -2677,11 +2361,7 @@
       <c r="D100" s="5" t="n">
         <v>300133</v>
       </c>
-      <c r="E100" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E100" s="6" t="n"/>
     </row>
     <row r="101" ht="21" customHeight="1" s="15">
       <c r="A101" s="3" t="n"/>
@@ -2698,11 +2378,7 @@
       <c r="D101" s="5" t="n">
         <v>301500</v>
       </c>
-      <c r="E101" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E101" s="6" t="n"/>
     </row>
     <row r="102" ht="21" customHeight="1" s="15">
       <c r="A102" s="3" t="n"/>
@@ -2719,11 +2395,7 @@
       <c r="D102" s="5" t="n">
         <v>301839</v>
       </c>
-      <c r="E102" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E102" s="6" t="n"/>
     </row>
     <row r="103" ht="21" customHeight="1" s="15">
       <c r="A103" s="3" t="n"/>
@@ -2740,11 +2412,7 @@
       <c r="D103" s="5" t="n">
         <v>300555</v>
       </c>
-      <c r="E103" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E103" s="6" t="n"/>
     </row>
     <row r="104" ht="21" customHeight="1" s="15">
       <c r="A104" s="3" t="n"/>
@@ -2761,11 +2429,7 @@
       <c r="D104" s="5" t="n">
         <v>301686</v>
       </c>
-      <c r="E104" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E104" s="6" t="n"/>
     </row>
     <row r="105" ht="21" customHeight="1" s="15">
       <c r="A105" s="3" t="n"/>
@@ -2782,11 +2446,7 @@
       <c r="D105" s="5" t="n">
         <v>301733</v>
       </c>
-      <c r="E105" s="6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
+      <c r="E105" s="6" t="n"/>
     </row>
     <row r="106" ht="21" customHeight="1" s="15">
       <c r="A106" s="7" t="inlineStr">
@@ -2807,11 +2467,7 @@
       <c r="D106" s="5" t="n">
         <v>300494</v>
       </c>
-      <c r="E106" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E106" s="6" t="n"/>
     </row>
     <row r="107" ht="21" customHeight="1" s="15">
       <c r="A107" s="7" t="inlineStr">
@@ -2832,11 +2488,7 @@
       <c r="D107" s="5" t="n">
         <v>301318</v>
       </c>
-      <c r="E107" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E107" s="6" t="n"/>
     </row>
     <row r="108" ht="21" customHeight="1" s="15">
       <c r="A108" s="7" t="inlineStr">
@@ -2857,11 +2509,7 @@
       <c r="D108" s="5" t="n">
         <v>300749</v>
       </c>
-      <c r="E108" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E108" s="6" t="n"/>
     </row>
     <row r="109" ht="21" customHeight="1" s="15">
       <c r="A109" s="7" t="inlineStr">
@@ -2882,11 +2530,7 @@
       <c r="D109" s="5" t="n">
         <v>300267</v>
       </c>
-      <c r="E109" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E109" s="6" t="n"/>
     </row>
     <row r="110" ht="21" customHeight="1" s="15">
       <c r="A110" s="7" t="inlineStr">
@@ -2907,11 +2551,7 @@
       <c r="D110" s="5" t="n">
         <v>300078</v>
       </c>
-      <c r="E110" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E110" s="6" t="n"/>
     </row>
     <row r="111" ht="21" customHeight="1" s="15">
       <c r="A111" s="7" t="inlineStr">
@@ -2932,11 +2572,7 @@
       <c r="D111" s="5" t="n">
         <v>300094</v>
       </c>
-      <c r="E111" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E111" s="6" t="n"/>
     </row>
     <row r="112" ht="21" customHeight="1" s="15">
       <c r="A112" s="7" t="inlineStr">
@@ -2957,11 +2593,7 @@
       <c r="D112" s="5" t="n">
         <v>300171</v>
       </c>
-      <c r="E112" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E112" s="6" t="n"/>
     </row>
     <row r="113" ht="21" customHeight="1" s="15">
       <c r="A113" s="7" t="inlineStr">
@@ -2982,11 +2614,7 @@
       <c r="D113" s="5" t="n">
         <v>301393</v>
       </c>
-      <c r="E113" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E113" s="6" t="n"/>
     </row>
     <row r="114" ht="21" customHeight="1" s="15">
       <c r="A114" s="7" t="inlineStr">
@@ -3007,11 +2635,7 @@
       <c r="D114" s="5" t="n">
         <v>300451</v>
       </c>
-      <c r="E114" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E114" s="6" t="n"/>
     </row>
     <row r="115" ht="21" customHeight="1" s="15">
       <c r="A115" s="7" t="inlineStr">
@@ -3032,11 +2656,7 @@
       <c r="D115" s="5" t="n">
         <v>301198</v>
       </c>
-      <c r="E115" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E115" s="6" t="n"/>
     </row>
     <row r="116" ht="21" customHeight="1" s="15">
       <c r="A116" s="13" t="inlineStr">
@@ -3057,11 +2677,7 @@
       <c r="D116" s="10" t="n">
         <v>300875</v>
       </c>
-      <c r="E116" s="11" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E116" s="11" t="n"/>
     </row>
     <row r="117" ht="21" customHeight="1" s="15">
       <c r="A117" s="7" t="inlineStr">
@@ -3082,11 +2698,7 @@
       <c r="D117" s="5" t="n">
         <v>300939</v>
       </c>
-      <c r="E117" s="6" t="inlineStr">
-        <is>
-          <t>nicht gültig</t>
-        </is>
-      </c>
+      <c r="E117" s="6" t="n"/>
     </row>
     <row r="118" ht="21" customHeight="1" s="15">
       <c r="A118" s="7" t="inlineStr">
@@ -3107,11 +2719,7 @@
       <c r="D118" s="5" t="n">
         <v>301338</v>
       </c>
-      <c r="E118" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E118" s="6" t="n"/>
     </row>
     <row r="119" ht="21" customHeight="1" s="15">
       <c r="A119" s="7" t="inlineStr">
@@ -3132,11 +2740,7 @@
       <c r="D119" s="5" t="n">
         <v>300207</v>
       </c>
-      <c r="E119" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E119" s="6" t="n"/>
     </row>
     <row r="120" ht="21" customHeight="1" s="15">
       <c r="A120" s="7" t="inlineStr">
@@ -3157,11 +2761,7 @@
       <c r="D120" s="5" t="n">
         <v>300236</v>
       </c>
-      <c r="E120" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E120" s="6" t="n"/>
     </row>
     <row r="121" ht="21" customHeight="1" s="15">
       <c r="A121" s="7" t="inlineStr">
@@ -3182,11 +2782,7 @@
       <c r="D121" s="5" t="n">
         <v>300019</v>
       </c>
-      <c r="E121" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E121" s="6" t="n"/>
     </row>
     <row r="122" ht="21" customHeight="1" s="15">
       <c r="A122" s="7" t="inlineStr">
@@ -3207,11 +2803,7 @@
       <c r="D122" s="5" t="n">
         <v>300105</v>
       </c>
-      <c r="E122" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E122" s="6" t="n"/>
     </row>
     <row r="123" ht="21" customHeight="1" s="15">
       <c r="A123" s="7" t="inlineStr">
@@ -3232,11 +2824,7 @@
       <c r="D123" s="5" t="n">
         <v>301390</v>
       </c>
-      <c r="E123" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E123" s="6" t="n"/>
     </row>
     <row r="124" ht="21" customHeight="1" s="15">
       <c r="A124" s="7" t="inlineStr">
@@ -3257,11 +2845,7 @@
       <c r="D124" s="5" t="n">
         <v>300473</v>
       </c>
-      <c r="E124" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E124" s="6" t="n"/>
     </row>
     <row r="125" ht="21" customHeight="1" s="15">
       <c r="A125" s="7" t="inlineStr">
@@ -3282,11 +2866,7 @@
       <c r="D125" s="5" t="n">
         <v>300537</v>
       </c>
-      <c r="E125" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E125" s="6" t="n"/>
     </row>
     <row r="126" ht="21" customHeight="1" s="15">
       <c r="A126" s="7" t="inlineStr">
@@ -3307,11 +2887,7 @@
       <c r="D126" s="5" t="n">
         <v>300627</v>
       </c>
-      <c r="E126" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E126" s="6" t="n"/>
     </row>
     <row r="127" ht="21" customHeight="1" s="15">
       <c r="A127" s="7" t="inlineStr">
@@ -3332,11 +2908,7 @@
       <c r="D127" s="5" t="n">
         <v>301262</v>
       </c>
-      <c r="E127" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E127" s="6" t="n"/>
     </row>
     <row r="128" ht="21" customHeight="1" s="15">
       <c r="A128" s="7" t="inlineStr">
@@ -3357,11 +2929,7 @@
       <c r="D128" s="5" t="n">
         <v>300815</v>
       </c>
-      <c r="E128" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E128" s="6" t="n"/>
     </row>
     <row r="129" ht="21" customHeight="1" s="15">
       <c r="A129" s="7" t="inlineStr">
@@ -3382,11 +2950,7 @@
       <c r="D129" s="5" t="n">
         <v>300121</v>
       </c>
-      <c r="E129" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E129" s="6" t="n"/>
     </row>
     <row r="130" ht="21" customHeight="1" s="15">
       <c r="A130" s="7" t="inlineStr">
@@ -3407,11 +2971,7 @@
       <c r="D130" s="5" t="n">
         <v>300731</v>
       </c>
-      <c r="E130" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E130" s="6" t="n"/>
     </row>
     <row r="131" ht="21" customHeight="1" s="15">
       <c r="A131" s="7" t="inlineStr">
@@ -3432,11 +2992,7 @@
       <c r="D131" s="5" t="n">
         <v>300358</v>
       </c>
-      <c r="E131" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E131" s="6" t="n"/>
     </row>
     <row r="132" ht="21" customHeight="1" s="15">
       <c r="A132" s="7" t="inlineStr">
@@ -3457,11 +3013,7 @@
       <c r="D132" s="5" t="n">
         <v>300768</v>
       </c>
-      <c r="E132" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E132" s="6" t="n"/>
     </row>
     <row r="133" ht="21" customHeight="1" s="15">
       <c r="A133" s="7" t="inlineStr">
@@ -3482,11 +3034,7 @@
       <c r="D133" s="5" t="n">
         <v>301215</v>
       </c>
-      <c r="E133" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E133" s="6" t="n"/>
     </row>
     <row r="134" ht="21" customHeight="1" s="15">
       <c r="A134" s="7" t="inlineStr">
@@ -3507,11 +3055,7 @@
       <c r="D134" s="5" t="n">
         <v>301618</v>
       </c>
-      <c r="E134" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E134" s="6" t="n"/>
     </row>
     <row r="135" ht="21" customHeight="1" s="15">
       <c r="A135" s="7" t="inlineStr">
@@ -3532,11 +3076,7 @@
       <c r="D135" s="5" t="n">
         <v>300463</v>
       </c>
-      <c r="E135" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E135" s="6" t="n"/>
     </row>
     <row r="136" ht="21" customHeight="1" s="15">
       <c r="A136" s="7" t="inlineStr">
@@ -3557,11 +3097,7 @@
       <c r="D136" s="5" t="n">
         <v>300186</v>
       </c>
-      <c r="E136" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E136" s="6" t="n"/>
     </row>
     <row r="137" ht="21" customHeight="1" s="15">
       <c r="A137" s="7" t="inlineStr">
@@ -3582,11 +3118,7 @@
       <c r="D137" s="5" t="n">
         <v>301723</v>
       </c>
-      <c r="E137" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E137" s="6" t="n"/>
     </row>
     <row r="138" ht="21" customHeight="1" s="15">
       <c r="A138" s="7" t="inlineStr">
@@ -3607,11 +3139,7 @@
       <c r="D138" s="5" t="n">
         <v>300110</v>
       </c>
-      <c r="E138" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E138" s="6" t="n"/>
     </row>
     <row r="139" ht="21" customHeight="1" s="15">
       <c r="A139" s="13" t="inlineStr">
@@ -3632,11 +3160,7 @@
       <c r="D139" s="10" t="n">
         <v>300206</v>
       </c>
-      <c r="E139" s="11" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E139" s="11" t="n"/>
     </row>
     <row r="140" ht="21" customHeight="1" s="15">
       <c r="A140" s="7" t="inlineStr">
@@ -3657,11 +3181,7 @@
       <c r="D140" s="5" t="n">
         <v>300898</v>
       </c>
-      <c r="E140" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E140" s="6" t="n"/>
     </row>
     <row r="141" ht="21" customHeight="1" s="15">
       <c r="A141" s="7" t="inlineStr">
@@ -3682,11 +3202,7 @@
       <c r="D141" s="5" t="n">
         <v>300905</v>
       </c>
-      <c r="E141" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E141" s="6" t="n"/>
     </row>
     <row r="142" ht="21" customHeight="1" s="15">
       <c r="A142" s="7" t="inlineStr">
@@ -3707,11 +3223,7 @@
       <c r="D142" s="5" t="n">
         <v>300606</v>
       </c>
-      <c r="E142" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E142" s="6" t="n"/>
     </row>
     <row r="143" ht="21" customHeight="1" s="15">
       <c r="A143" s="7" t="inlineStr">
@@ -3732,11 +3244,7 @@
       <c r="D143" s="5" t="n">
         <v>301204</v>
       </c>
-      <c r="E143" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E143" s="6" t="n"/>
     </row>
     <row r="144" ht="21" customHeight="1" s="15">
       <c r="A144" s="7" t="inlineStr">
@@ -3757,11 +3265,7 @@
       <c r="D144" s="5" t="n">
         <v>301677</v>
       </c>
-      <c r="E144" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E144" s="6" t="n"/>
     </row>
     <row r="145" ht="21" customHeight="1" s="15">
       <c r="A145" s="7" t="inlineStr">
@@ -3782,11 +3286,7 @@
       <c r="D145" s="5" t="n">
         <v>300409</v>
       </c>
-      <c r="E145" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E145" s="6" t="n"/>
     </row>
     <row r="146" ht="21" customHeight="1" s="15">
       <c r="A146" s="7" t="inlineStr">
@@ -3807,11 +3307,7 @@
       <c r="D146" s="5" t="n">
         <v>301041</v>
       </c>
-      <c r="E146" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E146" s="6" t="n"/>
     </row>
     <row r="147" ht="21" customHeight="1" s="15">
       <c r="A147" s="7" t="inlineStr">
@@ -3832,11 +3328,7 @@
       <c r="D147" s="5" t="n">
         <v>300693</v>
       </c>
-      <c r="E147" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E147" s="6" t="n"/>
     </row>
     <row r="148" ht="21" customHeight="1" s="15">
       <c r="A148" s="7" t="inlineStr">
@@ -3857,11 +3349,7 @@
       <c r="D148" s="5" t="n">
         <v>301377</v>
       </c>
-      <c r="E148" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E148" s="6" t="n"/>
     </row>
     <row r="149" ht="21" customHeight="1" s="15">
       <c r="A149" s="7" t="inlineStr">
@@ -3882,11 +3370,7 @@
       <c r="D149" s="5" t="n">
         <v>301419</v>
       </c>
-      <c r="E149" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E149" s="6" t="n"/>
     </row>
     <row r="150" ht="21" customHeight="1" s="15">
       <c r="A150" s="7" t="inlineStr">
@@ -3907,11 +3391,7 @@
       <c r="D150" s="5" t="n">
         <v>300199</v>
       </c>
-      <c r="E150" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E150" s="6" t="n"/>
     </row>
     <row r="151" ht="21" customHeight="1" s="15">
       <c r="A151" s="7" t="inlineStr">
@@ -3932,11 +3412,7 @@
       <c r="D151" s="5" t="n">
         <v>300472</v>
       </c>
-      <c r="E151" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E151" s="6" t="n"/>
     </row>
     <row r="152" ht="21" customHeight="1" s="15">
       <c r="A152" s="7" t="inlineStr">
@@ -3957,11 +3433,7 @@
       <c r="D152" s="5" t="n">
         <v>300624</v>
       </c>
-      <c r="E152" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E152" s="6" t="n"/>
     </row>
     <row r="153" ht="21" customHeight="1" s="15">
       <c r="A153" s="7" t="inlineStr">
@@ -3982,11 +3454,7 @@
       <c r="D153" s="5" t="n">
         <v>300732</v>
       </c>
-      <c r="E153" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E153" s="6" t="n"/>
     </row>
     <row r="154" ht="21" customHeight="1" s="15">
       <c r="A154" s="7" t="inlineStr">
@@ -4007,11 +3475,7 @@
       <c r="D154" s="5" t="n">
         <v>1300732</v>
       </c>
-      <c r="E154" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E154" s="6" t="n"/>
     </row>
     <row r="155" ht="21" customHeight="1" s="15">
       <c r="A155" s="7" t="inlineStr">
@@ -4032,11 +3496,7 @@
       <c r="D155" s="5" t="n">
         <v>300921</v>
       </c>
-      <c r="E155" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E155" s="6" t="n"/>
     </row>
     <row r="156" ht="21" customHeight="1" s="15">
       <c r="A156" s="7" t="inlineStr">
@@ -4057,11 +3517,7 @@
       <c r="D156" s="5" t="n">
         <v>1300918</v>
       </c>
-      <c r="E156" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E156" s="6" t="n"/>
     </row>
     <row r="157" ht="21" customHeight="1" s="15">
       <c r="A157" s="7" t="inlineStr">
@@ -4082,11 +3538,7 @@
       <c r="D157" s="5" t="n">
         <v>300812</v>
       </c>
-      <c r="E157" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E157" s="6" t="n"/>
     </row>
     <row r="158" ht="21" customHeight="1" s="15">
       <c r="A158" s="7" t="inlineStr">
@@ -4107,11 +3559,7 @@
       <c r="D158" s="5" t="n">
         <v>301553</v>
       </c>
-      <c r="E158" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E158" s="6" t="n"/>
     </row>
     <row r="159" ht="21" customHeight="1" s="15">
       <c r="A159" s="7" t="inlineStr">
@@ -4132,11 +3580,7 @@
       <c r="D159" s="5" t="n">
         <v>300868</v>
       </c>
-      <c r="E159" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E159" s="6" t="n"/>
     </row>
     <row r="160" ht="21" customHeight="1" s="15">
       <c r="A160" s="7" t="inlineStr">
@@ -4157,11 +3601,7 @@
       <c r="D160" s="5" t="n">
         <v>300620</v>
       </c>
-      <c r="E160" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E160" s="6" t="n"/>
     </row>
     <row r="161" ht="21" customHeight="1" s="15">
       <c r="A161" s="7" t="inlineStr">
@@ -4182,11 +3622,7 @@
       <c r="D161" s="5" t="n">
         <v>301518</v>
       </c>
-      <c r="E161" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E161" s="6" t="n"/>
     </row>
     <row r="162" ht="21" customHeight="1" s="15">
       <c r="A162" s="13" t="inlineStr">
@@ -4207,11 +3643,7 @@
       <c r="D162" s="10" t="n">
         <v>300056</v>
       </c>
-      <c r="E162" s="11" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E162" s="11" t="n"/>
     </row>
     <row r="163" ht="21" customHeight="1" s="15">
       <c r="A163" s="7" t="inlineStr">
@@ -4232,11 +3664,7 @@
       <c r="D163" s="5" t="n">
         <v>300710</v>
       </c>
-      <c r="E163" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E163" s="6" t="n"/>
     </row>
     <row r="164" ht="21" customHeight="1" s="15">
       <c r="A164" s="7" t="inlineStr">
@@ -4257,11 +3685,7 @@
       <c r="D164" s="5" t="n">
         <v>300032</v>
       </c>
-      <c r="E164" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E164" s="6" t="n"/>
     </row>
     <row r="165" ht="21" customHeight="1" s="15">
       <c r="A165" s="7" t="inlineStr">
@@ -4282,11 +3706,7 @@
       <c r="D165" s="5" t="n">
         <v>300004</v>
       </c>
-      <c r="E165" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E165" s="6" t="n"/>
     </row>
     <row r="166" ht="21" customHeight="1" s="15">
       <c r="A166" s="7" t="inlineStr">
@@ -4307,11 +3727,7 @@
       <c r="D166" s="5" t="n">
         <v>300837</v>
       </c>
-      <c r="E166" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E166" s="6" t="n"/>
     </row>
     <row r="167" ht="21" customHeight="1" s="15">
       <c r="A167" s="7" t="inlineStr">
@@ -4332,11 +3748,7 @@
       <c r="D167" s="5" t="n">
         <v>301035</v>
       </c>
-      <c r="E167" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E167" s="6" t="n"/>
     </row>
     <row r="168" ht="21" customHeight="1" s="15">
       <c r="A168" s="7" t="inlineStr">
@@ -4357,11 +3769,7 @@
       <c r="D168" s="5" t="n">
         <v>300237</v>
       </c>
-      <c r="E168" s="6" t="inlineStr">
-        <is>
-          <t>nicht gültig</t>
-        </is>
-      </c>
+      <c r="E168" s="6" t="n"/>
     </row>
     <row r="169" ht="21" customHeight="1" s="15">
       <c r="A169" s="7" t="inlineStr">
@@ -4382,11 +3790,7 @@
       <c r="D169" s="5" t="n">
         <v>300109</v>
       </c>
-      <c r="E169" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E169" s="6" t="n"/>
     </row>
     <row r="170" ht="21" customHeight="1" s="15">
       <c r="A170" s="7" t="inlineStr">
@@ -4407,11 +3811,7 @@
       <c r="D170" s="5" t="n">
         <v>300354</v>
       </c>
-      <c r="E170" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E170" s="6" t="n"/>
     </row>
     <row r="171" ht="21" customHeight="1" s="15">
       <c r="A171" s="7" t="inlineStr">
@@ -4432,11 +3832,7 @@
       <c r="D171" s="5" t="n">
         <v>300892</v>
       </c>
-      <c r="E171" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E171" s="6" t="n"/>
     </row>
     <row r="172" ht="21" customHeight="1" s="15">
       <c r="A172" s="7" t="inlineStr">
@@ -4457,11 +3853,7 @@
       <c r="D172" s="5" t="n">
         <v>300391</v>
       </c>
-      <c r="E172" s="6" t="inlineStr">
-        <is>
-          <t>nicht gültig</t>
-        </is>
-      </c>
+      <c r="E172" s="6" t="n"/>
     </row>
     <row r="173" ht="21" customHeight="1" s="15">
       <c r="A173" s="7" t="inlineStr">
@@ -4482,11 +3874,7 @@
       <c r="D173" s="5" t="n">
         <v>300859</v>
       </c>
-      <c r="E173" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E173" s="6" t="n"/>
     </row>
     <row r="174" ht="21" customHeight="1" s="15">
       <c r="A174" s="7" t="inlineStr">
@@ -4507,11 +3895,7 @@
       <c r="D174" s="5" t="n">
         <v>300501</v>
       </c>
-      <c r="E174" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E174" s="6" t="n"/>
     </row>
     <row r="175" ht="21" customHeight="1" s="15">
       <c r="A175" s="7" t="inlineStr">
@@ -4532,11 +3916,7 @@
       <c r="D175" s="5" t="n">
         <v>301458</v>
       </c>
-      <c r="E175" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E175" s="6" t="n"/>
     </row>
     <row r="176" ht="21" customHeight="1" s="15">
       <c r="A176" s="7" t="inlineStr">
@@ -4557,11 +3937,7 @@
       <c r="D176" s="5" t="n">
         <v>301291</v>
       </c>
-      <c r="E176" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E176" s="6" t="n"/>
     </row>
     <row r="177" ht="21" customHeight="1" s="15">
       <c r="A177" s="7" t="inlineStr">
@@ -4582,11 +3958,7 @@
       <c r="D177" s="5" t="n">
         <v>300375</v>
       </c>
-      <c r="E177" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E177" s="6" t="n"/>
     </row>
     <row r="178" ht="21" customHeight="1" s="15">
       <c r="A178" s="7" t="inlineStr">
@@ -4607,11 +3979,7 @@
       <c r="D178" s="5" t="n">
         <v>300838</v>
       </c>
-      <c r="E178" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E178" s="6" t="n"/>
     </row>
     <row r="179" ht="21" customHeight="1" s="15">
       <c r="A179" s="7" t="inlineStr">
@@ -4632,11 +4000,7 @@
       <c r="D179" s="5" t="n">
         <v>300198</v>
       </c>
-      <c r="E179" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E179" s="6" t="n"/>
     </row>
     <row r="180" ht="21" customHeight="1" s="15">
       <c r="A180" s="7" t="inlineStr">
@@ -4657,11 +4021,7 @@
       <c r="D180" s="5" t="n">
         <v>300612</v>
       </c>
-      <c r="E180" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E180" s="6" t="n"/>
     </row>
     <row r="181" ht="21" customHeight="1" s="15">
       <c r="A181" s="7" t="inlineStr">
@@ -4682,11 +4042,7 @@
       <c r="D181" s="5" t="n">
         <v>301281</v>
       </c>
-      <c r="E181" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E181" s="6" t="n"/>
     </row>
     <row r="182" ht="21" customHeight="1" s="15">
       <c r="A182" s="7" t="inlineStr">
@@ -4707,11 +4063,7 @@
       <c r="D182" s="5" t="n">
         <v>300832</v>
       </c>
-      <c r="E182" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E182" s="6" t="n"/>
     </row>
     <row r="183" ht="21" customHeight="1" s="15">
       <c r="A183" s="7" t="inlineStr">
@@ -4732,11 +4084,7 @@
       <c r="D183" s="5" t="n">
         <v>300389</v>
       </c>
-      <c r="E183" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E183" s="6" t="n"/>
     </row>
     <row r="184" ht="21" customHeight="1" s="15">
       <c r="A184" s="7" t="inlineStr">
@@ -4757,11 +4105,7 @@
       <c r="D184" s="5" t="n">
         <v>300064</v>
       </c>
-      <c r="E184" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E184" s="6" t="n"/>
     </row>
     <row r="185" ht="21" customHeight="1" s="15">
       <c r="A185" s="13" t="inlineStr">
@@ -4782,11 +4126,7 @@
       <c r="D185" s="10" t="n">
         <v>301789</v>
       </c>
-      <c r="E185" s="11" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E185" s="11" t="n"/>
     </row>
     <row r="186" ht="21" customHeight="1" s="15">
       <c r="A186" s="7" t="inlineStr">
@@ -4807,11 +4147,7 @@
       <c r="D186" s="5" t="n">
         <v>300167</v>
       </c>
-      <c r="E186" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E186" s="6" t="n"/>
     </row>
     <row r="187" ht="21" customHeight="1" s="15">
       <c r="A187" s="7" t="inlineStr">
@@ -4832,11 +4168,7 @@
       <c r="D187" s="5" t="n">
         <v>300887</v>
       </c>
-      <c r="E187" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E187" s="6" t="n"/>
     </row>
     <row r="188" ht="21" customHeight="1" s="15">
       <c r="A188" s="7" t="inlineStr">
@@ -4857,11 +4189,7 @@
       <c r="D188" s="5" t="n">
         <v>301639</v>
       </c>
-      <c r="E188" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E188" s="6" t="n"/>
     </row>
     <row r="189" ht="21" customHeight="1" s="15">
       <c r="A189" s="7" t="inlineStr">
@@ -4882,11 +4210,7 @@
       <c r="D189" s="5" t="n">
         <v>300938</v>
       </c>
-      <c r="E189" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E189" s="6" t="n"/>
     </row>
     <row r="190" ht="21" customHeight="1" s="15">
       <c r="A190" s="7" t="inlineStr">
@@ -4907,11 +4231,7 @@
       <c r="D190" s="5" t="n">
         <v>301439</v>
       </c>
-      <c r="E190" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E190" s="6" t="n"/>
     </row>
     <row r="191" ht="21" customHeight="1" s="15">
       <c r="A191" s="7" t="inlineStr">
@@ -4932,11 +4252,7 @@
       <c r="D191" s="5" t="n">
         <v>301057</v>
       </c>
-      <c r="E191" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E191" s="6" t="n"/>
     </row>
     <row r="192" ht="21" customHeight="1" s="15">
       <c r="A192" s="7" t="inlineStr">
@@ -4957,11 +4273,7 @@
       <c r="D192" s="5" t="n">
         <v>300010</v>
       </c>
-      <c r="E192" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E192" s="6" t="n"/>
     </row>
     <row r="193" ht="21" customHeight="1" s="15">
       <c r="A193" s="7" t="inlineStr">
@@ -4982,11 +4294,7 @@
       <c r="D193" s="5" t="n">
         <v>301443</v>
       </c>
-      <c r="E193" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E193" s="6" t="n"/>
     </row>
     <row r="194" ht="21" customHeight="1" s="15">
       <c r="A194" s="7" t="inlineStr">
@@ -5007,11 +4315,7 @@
       <c r="D194" s="5" t="n">
         <v>300173</v>
       </c>
-      <c r="E194" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E194" s="6" t="n"/>
     </row>
     <row r="195" ht="21" customHeight="1" s="15">
       <c r="A195" s="7" t="inlineStr">
@@ -5032,11 +4336,7 @@
       <c r="D195" s="5" t="n">
         <v>300009</v>
       </c>
-      <c r="E195" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E195" s="6" t="n"/>
     </row>
     <row r="196" ht="21" customHeight="1" s="15">
       <c r="A196" s="7" t="inlineStr">
@@ -5057,11 +4357,7 @@
       <c r="D196" s="5" t="n">
         <v>300865</v>
       </c>
-      <c r="E196" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E196" s="6" t="n"/>
     </row>
     <row r="197" ht="21" customHeight="1" s="15">
       <c r="A197" s="7" t="inlineStr">
@@ -5082,11 +4378,7 @@
       <c r="D197" s="5" t="n">
         <v>300120</v>
       </c>
-      <c r="E197" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E197" s="6" t="n"/>
     </row>
     <row r="198" ht="21" customHeight="1" s="15">
       <c r="A198" s="7" t="inlineStr">
@@ -5107,11 +4399,7 @@
       <c r="D198" s="5" t="n">
         <v>301398</v>
       </c>
-      <c r="E198" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E198" s="6" t="n"/>
     </row>
     <row r="199" ht="21" customHeight="1" s="15">
       <c r="A199" s="7" t="inlineStr">
@@ -5132,11 +4420,7 @@
       <c r="D199" s="5" t="n">
         <v>300600</v>
       </c>
-      <c r="E199" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E199" s="6" t="n"/>
     </row>
     <row r="200" ht="21" customHeight="1" s="15">
       <c r="A200" s="7" t="inlineStr">
@@ -5157,11 +4441,7 @@
       <c r="D200" s="5" t="n">
         <v>300842</v>
       </c>
-      <c r="E200" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E200" s="6" t="n"/>
     </row>
     <row r="201" ht="21" customHeight="1" s="15">
       <c r="A201" s="7" t="inlineStr">
@@ -5182,11 +4462,7 @@
       <c r="D201" s="5" t="n">
         <v>301475</v>
       </c>
-      <c r="E201" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E201" s="6" t="n"/>
     </row>
     <row r="202" ht="21" customHeight="1" s="15">
       <c r="A202" s="7" t="inlineStr">
@@ -5207,11 +4483,7 @@
       <c r="D202" s="5" t="n">
         <v>300845</v>
       </c>
-      <c r="E202" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E202" s="6" t="n"/>
     </row>
     <row r="203" ht="21" customHeight="1" s="15">
       <c r="A203" s="7" t="inlineStr">
@@ -5232,11 +4504,7 @@
       <c r="D203" s="5" t="n">
         <v>300680</v>
       </c>
-      <c r="E203" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E203" s="6" t="n"/>
     </row>
     <row r="204" ht="21" customHeight="1" s="15">
       <c r="A204" s="7" t="inlineStr">
@@ -5257,11 +4525,7 @@
       <c r="D204" s="5" t="n">
         <v>300727</v>
       </c>
-      <c r="E204" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E204" s="6" t="n"/>
     </row>
     <row r="205" ht="21" customHeight="1" s="15">
       <c r="A205" s="7" t="inlineStr">
@@ -5282,11 +4546,7 @@
       <c r="D205" s="5" t="n">
         <v>301482</v>
       </c>
-      <c r="E205" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E205" s="6" t="n"/>
     </row>
     <row r="206" ht="21" customHeight="1" s="15">
       <c r="A206" s="7" t="inlineStr">
@@ -5307,11 +4567,7 @@
       <c r="D206" s="5" t="n">
         <v>300415</v>
       </c>
-      <c r="E206" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E206" s="6" t="n"/>
     </row>
     <row r="207" ht="21" customHeight="1" s="15">
       <c r="A207" s="7" t="inlineStr">
@@ -5332,11 +4588,7 @@
       <c r="D207" s="5" t="n">
         <v>300429</v>
       </c>
-      <c r="E207" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E207" s="6" t="n"/>
     </row>
     <row r="208" ht="21" customHeight="1" s="15">
       <c r="A208" s="13" t="inlineStr">
@@ -5357,11 +4609,7 @@
       <c r="D208" s="10" t="n">
         <v>300718</v>
       </c>
-      <c r="E208" s="11" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E208" s="11" t="n"/>
     </row>
     <row r="209" ht="21" customHeight="1" s="15">
       <c r="A209" s="7" t="inlineStr">
@@ -5382,11 +4630,7 @@
       <c r="D209" s="5" t="n">
         <v>301560</v>
       </c>
-      <c r="E209" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E209" s="6" t="n"/>
     </row>
     <row r="210" ht="21" customHeight="1" s="15">
       <c r="A210" s="7" t="inlineStr">
@@ -5407,11 +4651,7 @@
       <c r="D210" s="5" t="n">
         <v>300083</v>
       </c>
-      <c r="E210" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E210" s="6" t="n"/>
     </row>
     <row r="211" ht="21" customHeight="1" s="15">
       <c r="A211" s="7" t="inlineStr">
@@ -5432,11 +4672,7 @@
       <c r="D211" s="5" t="n">
         <v>301623</v>
       </c>
-      <c r="E211" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E211" s="6" t="n"/>
     </row>
     <row r="212" ht="21" customHeight="1" s="15">
       <c r="A212" s="7" t="inlineStr">
@@ -5457,11 +4693,7 @@
       <c r="D212" s="5" t="n">
         <v>301493</v>
       </c>
-      <c r="E212" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E212" s="6" t="n"/>
     </row>
     <row r="213" ht="21" customHeight="1" s="15">
       <c r="A213" s="7" t="inlineStr">
@@ -5482,11 +4714,7 @@
       <c r="D213" s="5" t="n">
         <v>300679</v>
       </c>
-      <c r="E213" s="6" t="inlineStr">
-        <is>
-          <t>nicht gültig</t>
-        </is>
-      </c>
+      <c r="E213" s="6" t="n"/>
     </row>
     <row r="214" ht="21" customHeight="1" s="15">
       <c r="A214" s="7" t="inlineStr">
@@ -5507,11 +4735,7 @@
       <c r="D214" s="5" t="n">
         <v>300807</v>
       </c>
-      <c r="E214" s="6" t="inlineStr">
-        <is>
-          <t>nicht gültig</t>
-        </is>
-      </c>
+      <c r="E214" s="6" t="n"/>
     </row>
     <row r="215" ht="21" customHeight="1" s="15">
       <c r="A215" s="7" t="inlineStr">
@@ -5532,11 +4756,7 @@
       <c r="D215" s="5" t="n">
         <v>300324</v>
       </c>
-      <c r="E215" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E215" s="6" t="n"/>
     </row>
     <row r="216" ht="21" customHeight="1" s="15">
       <c r="A216" s="7" t="inlineStr">
@@ -5557,11 +4777,7 @@
       <c r="D216" s="5" t="n">
         <v>300824</v>
       </c>
-      <c r="E216" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E216" s="6" t="n"/>
     </row>
     <row r="217" ht="21" customHeight="1" s="15">
       <c r="A217" s="7" t="inlineStr">
@@ -5582,11 +4798,7 @@
       <c r="D217" s="5" t="n">
         <v>300217</v>
       </c>
-      <c r="E217" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E217" s="6" t="n"/>
     </row>
     <row r="218" ht="21" customHeight="1" s="15">
       <c r="A218" s="7" t="inlineStr">
@@ -5607,11 +4819,7 @@
       <c r="D218" s="5" t="n">
         <v>301883</v>
       </c>
-      <c r="E218" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E218" s="6" t="n"/>
     </row>
     <row r="219" ht="21" customHeight="1" s="15">
       <c r="A219" s="7" t="inlineStr">
@@ -5632,11 +4840,7 @@
       <c r="D219" s="5" t="n">
         <v>300197</v>
       </c>
-      <c r="E219" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E219" s="6" t="n"/>
     </row>
     <row r="220" ht="21" customHeight="1" s="15">
       <c r="A220" s="7" t="inlineStr">
@@ -5657,11 +4861,7 @@
       <c r="D220" s="5" t="n">
         <v>300411</v>
       </c>
-      <c r="E220" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E220" s="6" t="n"/>
     </row>
     <row r="221" ht="21" customHeight="1" s="15">
       <c r="A221" s="7" t="inlineStr">
@@ -5682,11 +4882,7 @@
       <c r="D221" s="5" t="n">
         <v>300368</v>
       </c>
-      <c r="E221" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E221" s="6" t="n"/>
     </row>
     <row r="222" ht="21" customHeight="1" s="15">
       <c r="A222" s="7" t="inlineStr">
@@ -5707,11 +4903,7 @@
       <c r="D222" s="5" t="n">
         <v>301311</v>
       </c>
-      <c r="E222" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E222" s="6" t="n"/>
     </row>
     <row r="223" ht="21" customHeight="1" s="15">
       <c r="A223" s="7" t="inlineStr">
@@ -5732,11 +4924,7 @@
       <c r="D223" s="5" t="n">
         <v>300317</v>
       </c>
-      <c r="E223" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E223" s="6" t="n"/>
     </row>
     <row r="224" ht="21" customHeight="1" s="15">
       <c r="A224" s="7" t="inlineStr">
@@ -5757,11 +4945,7 @@
       <c r="D224" s="5" t="n">
         <v>301244</v>
       </c>
-      <c r="E224" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E224" s="6" t="n"/>
     </row>
     <row r="225" ht="21" customHeight="1" s="15">
       <c r="A225" s="7" t="inlineStr">
@@ -5782,11 +4966,7 @@
       <c r="D225" s="5" t="n">
         <v>300522</v>
       </c>
-      <c r="E225" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E225" s="6" t="n"/>
     </row>
     <row r="226" ht="21" customHeight="1" s="15">
       <c r="A226" s="7" t="inlineStr">
@@ -5807,11 +4987,7 @@
       <c r="D226" s="5" t="n">
         <v>301284</v>
       </c>
-      <c r="E226" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E226" s="6" t="n"/>
     </row>
     <row r="227" ht="21" customHeight="1" s="15">
       <c r="A227" s="7" t="inlineStr">
@@ -5832,11 +5008,7 @@
       <c r="D227" s="5" t="n">
         <v>301320</v>
       </c>
-      <c r="E227" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E227" s="6" t="n"/>
     </row>
     <row r="228" ht="21" customHeight="1" s="15">
       <c r="A228" s="7" t="inlineStr">
@@ -5857,11 +5029,7 @@
       <c r="D228" s="5" t="n">
         <v>300404</v>
       </c>
-      <c r="E228" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E228" s="6" t="n"/>
     </row>
     <row r="229" ht="21" customHeight="1" s="15">
       <c r="A229" s="7" t="inlineStr">
@@ -5882,11 +5050,7 @@
       <c r="D229" s="5" t="n">
         <v>301332</v>
       </c>
-      <c r="E229" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E229" s="6" t="n"/>
     </row>
     <row r="230" ht="21" customHeight="1" s="15">
       <c r="A230" s="7" t="inlineStr">
@@ -5907,11 +5071,7 @@
       <c r="D230" s="5" t="n">
         <v>301203</v>
       </c>
-      <c r="E230" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E230" s="6" t="n"/>
     </row>
     <row r="231" ht="21" customHeight="1" s="15">
       <c r="A231" s="13" t="inlineStr">
@@ -5932,11 +5092,7 @@
       <c r="D231" s="10" t="n">
         <v>300289</v>
       </c>
-      <c r="E231" s="11" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E231" s="11" t="n"/>
     </row>
     <row r="232" ht="21" customHeight="1" s="15">
       <c r="A232" s="7" t="inlineStr">
@@ -5957,11 +5113,7 @@
       <c r="D232" s="5" t="n">
         <v>300691</v>
       </c>
-      <c r="E232" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E232" s="6" t="n"/>
     </row>
     <row r="233" ht="21" customHeight="1" s="15">
       <c r="A233" s="7" t="inlineStr">
@@ -5982,11 +5134,7 @@
       <c r="D233" s="5" t="n">
         <v>300719</v>
       </c>
-      <c r="E233" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E233" s="6" t="n"/>
     </row>
     <row r="234" ht="21" customHeight="1" s="15">
       <c r="A234" s="7" t="inlineStr">
@@ -6007,11 +5155,7 @@
       <c r="D234" s="5" t="n">
         <v>300645</v>
       </c>
-      <c r="E234" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E234" s="6" t="n"/>
     </row>
     <row r="235" ht="21" customHeight="1" s="15">
       <c r="A235" s="7" t="inlineStr">
@@ -6032,11 +5176,7 @@
       <c r="D235" s="5" t="n">
         <v>300539</v>
       </c>
-      <c r="E235" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E235" s="6" t="n"/>
     </row>
     <row r="236" ht="21" customHeight="1" s="15">
       <c r="A236" s="7" t="inlineStr">
@@ -6057,11 +5197,7 @@
       <c r="D236" s="5" t="n">
         <v>300818</v>
       </c>
-      <c r="E236" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E236" s="6" t="n"/>
     </row>
     <row r="237" ht="21" customHeight="1" s="15">
       <c r="A237" s="7" t="inlineStr">
@@ -6082,11 +5218,7 @@
       <c r="D237" s="5" t="n">
         <v>300238</v>
       </c>
-      <c r="E237" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E237" s="6" t="n"/>
     </row>
     <row r="238" ht="21" customHeight="1" s="15">
       <c r="A238" s="7" t="inlineStr">
@@ -6107,11 +5239,7 @@
       <c r="D238" s="5" t="n">
         <v>300582</v>
       </c>
-      <c r="E238" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E238" s="6" t="n"/>
     </row>
     <row r="239" ht="21" customHeight="1" s="15">
       <c r="A239" s="7" t="inlineStr">
@@ -6132,11 +5260,7 @@
       <c r="D239" s="5" t="n">
         <v>301235</v>
       </c>
-      <c r="E239" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E239" s="6" t="n"/>
     </row>
     <row r="240" ht="21" customHeight="1" s="15">
       <c r="A240" s="7" t="inlineStr">
@@ -6157,11 +5281,7 @@
       <c r="D240" s="5" t="n">
         <v>301221</v>
       </c>
-      <c r="E240" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E240" s="6" t="n"/>
     </row>
     <row r="241" ht="21" customHeight="1" s="15">
       <c r="A241" s="7" t="inlineStr">
@@ -6182,11 +5302,7 @@
       <c r="D241" s="5" t="n">
         <v>300884</v>
       </c>
-      <c r="E241" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E241" s="6" t="n"/>
     </row>
     <row r="242" ht="21" customHeight="1" s="15">
       <c r="A242" s="7" t="inlineStr">
@@ -6207,11 +5323,7 @@
       <c r="D242" s="5" t="n">
         <v>300890</v>
       </c>
-      <c r="E242" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E242" s="6" t="n"/>
     </row>
     <row r="243" ht="21" customHeight="1" s="15">
       <c r="A243" s="7" t="inlineStr">
@@ -6232,11 +5344,7 @@
       <c r="D243" s="5" t="n">
         <v>300024</v>
       </c>
-      <c r="E243" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E243" s="6" t="n"/>
     </row>
     <row r="244" ht="21" customHeight="1" s="15">
       <c r="A244" s="7" t="inlineStr">
@@ -6257,11 +5365,7 @@
       <c r="D244" s="5" t="n">
         <v>300986</v>
       </c>
-      <c r="E244" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E244" s="6" t="n"/>
     </row>
     <row r="245" ht="21" customHeight="1" s="15">
       <c r="A245" s="7" t="inlineStr">
@@ -6282,11 +5386,7 @@
       <c r="D245" s="5" t="n">
         <v>300272</v>
       </c>
-      <c r="E245" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E245" s="6" t="n"/>
     </row>
     <row r="246" ht="21" customHeight="1" s="15">
       <c r="A246" s="7" t="inlineStr">
@@ -6307,11 +5407,7 @@
       <c r="D246" s="5" t="n">
         <v>300286</v>
       </c>
-      <c r="E246" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E246" s="6" t="n"/>
     </row>
     <row r="247" ht="21" customHeight="1" s="15">
       <c r="A247" s="7" t="inlineStr">
@@ -6332,11 +5428,7 @@
       <c r="D247" s="5" t="n">
         <v>301328</v>
       </c>
-      <c r="E247" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E247" s="6" t="n"/>
     </row>
     <row r="248" ht="21" customHeight="1" s="15">
       <c r="A248" s="7" t="inlineStr">
@@ -6357,11 +5449,7 @@
       <c r="D248" s="5" t="n">
         <v>300279</v>
       </c>
-      <c r="E248" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E248" s="6" t="n"/>
     </row>
     <row r="249" ht="21" customHeight="1" s="15">
       <c r="A249" s="7" t="inlineStr">
@@ -6382,11 +5470,7 @@
       <c r="D249" s="5" t="n">
         <v>300285</v>
       </c>
-      <c r="E249" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E249" s="6" t="n"/>
     </row>
     <row r="250" ht="21" customHeight="1" s="15">
       <c r="A250" s="7" t="inlineStr">
@@ -6407,11 +5491,7 @@
       <c r="D250" s="5" t="n">
         <v>300281</v>
       </c>
-      <c r="E250" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E250" s="6" t="n"/>
     </row>
     <row r="251" ht="21" customHeight="1" s="15">
       <c r="A251" s="7" t="inlineStr">
@@ -6432,11 +5512,7 @@
       <c r="D251" s="5" t="n">
         <v>300277</v>
       </c>
-      <c r="E251" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E251" s="6" t="n"/>
     </row>
     <row r="252" ht="21" customHeight="1" s="15">
       <c r="A252" s="7" t="inlineStr">
@@ -6457,11 +5533,7 @@
       <c r="D252" s="5" t="n">
         <v>301449</v>
       </c>
-      <c r="E252" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E252" s="6" t="n"/>
     </row>
     <row r="253" ht="21" customHeight="1" s="15">
       <c r="A253" s="7" t="inlineStr">
@@ -6482,11 +5554,7 @@
       <c r="D253" s="5" t="n">
         <v>300603</v>
       </c>
-      <c r="E253" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E253" s="6" t="n"/>
     </row>
     <row r="254" ht="21" customHeight="1" s="15">
       <c r="A254" s="13" t="inlineStr">
@@ -6507,11 +5575,7 @@
       <c r="D254" s="10" t="n">
         <v>300438</v>
       </c>
-      <c r="E254" s="11" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E254" s="11" t="n"/>
     </row>
     <row r="255" ht="21" customHeight="1" s="15">
       <c r="A255" s="7" t="inlineStr">
@@ -6532,11 +5596,7 @@
       <c r="D255" s="5" t="n">
         <v>300359</v>
       </c>
-      <c r="E255" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E255" s="6" t="n"/>
     </row>
     <row r="256" ht="21" customHeight="1" s="15">
       <c r="A256" s="7" t="inlineStr">
@@ -6557,11 +5617,7 @@
       <c r="D256" s="5" t="n">
         <v>300446</v>
       </c>
-      <c r="E256" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E256" s="6" t="n"/>
     </row>
     <row r="257" ht="21" customHeight="1" s="15">
       <c r="A257" s="7" t="inlineStr">
@@ -6582,11 +5638,7 @@
       <c r="D257" s="5" t="n">
         <v>301288</v>
       </c>
-      <c r="E257" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E257" s="6" t="n"/>
     </row>
     <row r="258" ht="21" customHeight="1" s="15">
       <c r="A258" s="7" t="inlineStr">
@@ -6607,11 +5659,7 @@
       <c r="D258" s="5" t="n">
         <v>300017</v>
       </c>
-      <c r="E258" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E258" s="6" t="n"/>
     </row>
     <row r="259" ht="21" customHeight="1" s="15">
       <c r="A259" s="7" t="inlineStr">
@@ -6632,11 +5680,7 @@
       <c r="D259" s="5" t="n">
         <v>300699</v>
       </c>
-      <c r="E259" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E259" s="6" t="n"/>
     </row>
     <row r="260" ht="21" customHeight="1" s="15">
       <c r="A260" s="7" t="inlineStr">
@@ -6657,11 +5701,7 @@
       <c r="D260" s="5" t="n">
         <v>300080</v>
       </c>
-      <c r="E260" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E260" s="6" t="n"/>
     </row>
     <row r="261" ht="21" customHeight="1" s="15">
       <c r="A261" s="7" t="inlineStr">
@@ -6682,11 +5722,7 @@
       <c r="D261" s="5" t="n">
         <v>300681</v>
       </c>
-      <c r="E261" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E261" s="6" t="n"/>
     </row>
     <row r="262" ht="21" customHeight="1" s="15">
       <c r="A262" s="7" t="inlineStr">
@@ -6707,11 +5743,7 @@
       <c r="D262" s="5" t="n">
         <v>300260</v>
       </c>
-      <c r="E262" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E262" s="6" t="n"/>
     </row>
     <row r="263" ht="21" customHeight="1" s="15">
       <c r="A263" s="7" t="inlineStr">
@@ -6732,11 +5764,7 @@
       <c r="D263" s="5" t="n">
         <v>300502</v>
       </c>
-      <c r="E263" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E263" s="6" t="n"/>
     </row>
     <row r="264" ht="21" customHeight="1" s="15">
       <c r="A264" s="7" t="inlineStr">
@@ -6757,11 +5785,7 @@
       <c r="D264" s="5" t="n">
         <v>301806</v>
       </c>
-      <c r="E264" s="6" t="inlineStr">
-        <is>
-          <t>nicht gültig</t>
-        </is>
-      </c>
+      <c r="E264" s="6" t="n"/>
     </row>
     <row r="265" ht="21" customHeight="1" s="15">
       <c r="A265" s="7" t="inlineStr">
@@ -6782,11 +5806,7 @@
       <c r="D265" s="5" t="n">
         <v>301710</v>
       </c>
-      <c r="E265" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E265" s="6" t="n"/>
     </row>
     <row r="266" ht="21" customHeight="1" s="15">
       <c r="A266" s="7" t="inlineStr">
@@ -6807,11 +5827,7 @@
       <c r="D266" s="5" t="n">
         <v>301731</v>
       </c>
-      <c r="E266" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E266" s="6" t="n"/>
     </row>
     <row r="267" ht="21" customHeight="1" s="15">
       <c r="A267" s="7" t="inlineStr">
@@ -6832,11 +5848,7 @@
       <c r="D267" s="5" t="n">
         <v>300828</v>
       </c>
-      <c r="E267" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E267" s="6" t="n"/>
     </row>
     <row r="268" ht="21" customHeight="1" s="15">
       <c r="A268" s="7" t="inlineStr">
@@ -6857,11 +5869,7 @@
       <c r="D268" s="5" t="n">
         <v>300047</v>
       </c>
-      <c r="E268" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E268" s="6" t="n"/>
     </row>
     <row r="269" ht="21" customHeight="1" s="15">
       <c r="A269" s="7" t="inlineStr">
@@ -6882,11 +5890,7 @@
       <c r="D269" s="5" t="n">
         <v>300461</v>
       </c>
-      <c r="E269" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E269" s="6" t="n"/>
     </row>
     <row r="270" ht="21" customHeight="1" s="15">
       <c r="A270" s="7" t="inlineStr">
@@ -6907,11 +5911,7 @@
       <c r="D270" s="5" t="n">
         <v>300422</v>
       </c>
-      <c r="E270" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E270" s="6" t="n"/>
     </row>
     <row r="271" ht="21" customHeight="1" s="15">
       <c r="A271" s="7" t="inlineStr">
@@ -6932,11 +5932,7 @@
       <c r="D271" s="5" t="n">
         <v>300896</v>
       </c>
-      <c r="E271" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E271" s="6" t="n"/>
     </row>
     <row r="272" ht="21" customHeight="1" s="15">
       <c r="A272" s="7" t="inlineStr">
@@ -6957,11 +5953,7 @@
       <c r="D272" s="5" t="n">
         <v>301643</v>
       </c>
-      <c r="E272" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E272" s="6" t="n"/>
     </row>
     <row r="273" ht="21" customHeight="1" s="15">
       <c r="A273" s="7" t="inlineStr">
@@ -6982,11 +5974,7 @@
       <c r="D273" s="5" t="n">
         <v>300426</v>
       </c>
-      <c r="E273" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E273" s="6" t="n"/>
     </row>
     <row r="274" ht="21" customHeight="1" s="15">
       <c r="A274" s="7" t="inlineStr">
@@ -7007,11 +5995,7 @@
       <c r="D274" s="5" t="n">
         <v>300307</v>
       </c>
-      <c r="E274" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E274" s="6" t="n"/>
     </row>
     <row r="275" ht="21" customHeight="1" s="15">
       <c r="A275" s="7" t="inlineStr">
@@ -7032,11 +6016,7 @@
       <c r="D275" s="5" t="n">
         <v>301634</v>
       </c>
-      <c r="E275" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E275" s="6" t="n"/>
     </row>
     <row r="276" ht="21" customHeight="1" s="15">
       <c r="A276" s="7" t="inlineStr">
@@ -7057,11 +6037,7 @@
       <c r="D276" s="5" t="n">
         <v>301611</v>
       </c>
-      <c r="E276" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E276" s="6" t="n"/>
     </row>
     <row r="277" ht="21" customHeight="1" s="15">
       <c r="A277" s="13" t="inlineStr">
@@ -7082,11 +6058,7 @@
       <c r="D277" s="10" t="n">
         <v>300496</v>
       </c>
-      <c r="E277" s="11" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E277" s="11" t="n"/>
     </row>
     <row r="278" ht="21" customHeight="1" s="15">
       <c r="A278" s="7" t="inlineStr">
@@ -7107,11 +6079,7 @@
       <c r="D278" s="5" t="n">
         <v>300764</v>
       </c>
-      <c r="E278" s="6" t="inlineStr">
-        <is>
-          <t>nicht gültig</t>
-        </is>
-      </c>
+      <c r="E278" s="6" t="n"/>
     </row>
     <row r="279" ht="21" customHeight="1" s="15">
       <c r="A279" s="7" t="inlineStr">
@@ -7132,11 +6100,7 @@
       <c r="D279" s="5" t="n">
         <v>300495</v>
       </c>
-      <c r="E279" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E279" s="6" t="n"/>
     </row>
     <row r="280" ht="21" customHeight="1" s="15">
       <c r="A280" s="7" t="inlineStr">
@@ -7157,11 +6121,7 @@
       <c r="D280" s="5" t="n">
         <v>300678</v>
       </c>
-      <c r="E280" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E280" s="6" t="n"/>
     </row>
     <row r="281" ht="21" customHeight="1" s="15">
       <c r="A281" s="7" t="inlineStr">
@@ -7182,11 +6142,7 @@
       <c r="D281" s="5" t="n">
         <v>300738</v>
       </c>
-      <c r="E281" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E281" s="6" t="n"/>
     </row>
     <row r="282" ht="21" customHeight="1" s="15">
       <c r="A282" s="7" t="inlineStr">
@@ -7207,11 +6163,7 @@
       <c r="D282" s="5" t="n">
         <v>300552</v>
       </c>
-      <c r="E282" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E282" s="6" t="n"/>
     </row>
     <row r="283" ht="21" customHeight="1" s="15">
       <c r="A283" s="7" t="inlineStr">
@@ -7232,11 +6184,7 @@
       <c r="D283" s="5" t="n">
         <v>300725</v>
       </c>
-      <c r="E283" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E283" s="6" t="n"/>
     </row>
     <row r="284" ht="21" customHeight="1" s="15">
       <c r="A284" s="7" t="inlineStr">
@@ -7257,11 +6205,7 @@
       <c r="D284" s="5" t="n">
         <v>300869</v>
       </c>
-      <c r="E284" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E284" s="6" t="n"/>
     </row>
     <row r="285" ht="21" customHeight="1" s="15">
       <c r="A285" s="7" t="inlineStr">
@@ -7282,11 +6226,7 @@
       <c r="D285" s="5" t="n">
         <v>301468</v>
       </c>
-      <c r="E285" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E285" s="6" t="n"/>
     </row>
     <row r="286" ht="21" customHeight="1" s="15">
       <c r="A286" s="7" t="inlineStr">
@@ -7307,11 +6247,7 @@
       <c r="D286" s="5" t="n">
         <v>301065</v>
       </c>
-      <c r="E286" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E286" s="6" t="n"/>
     </row>
     <row r="287" ht="21" customHeight="1" s="15">
       <c r="A287" s="7" t="inlineStr">
@@ -7332,11 +6268,7 @@
       <c r="D287" s="5" t="n">
         <v>300998</v>
       </c>
-      <c r="E287" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E287" s="6" t="n"/>
     </row>
     <row r="288" ht="21" customHeight="1" s="15">
       <c r="A288" s="7" t="inlineStr">
@@ -7357,11 +6289,7 @@
       <c r="D288" s="5" t="n">
         <v>300369</v>
       </c>
-      <c r="E288" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E288" s="6" t="n"/>
     </row>
     <row r="289" ht="21" customHeight="1" s="15">
       <c r="A289" s="7" t="inlineStr">
@@ -7382,11 +6310,7 @@
       <c r="D289" s="5" t="n">
         <v>300070</v>
       </c>
-      <c r="E289" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E289" s="6" t="n"/>
     </row>
     <row r="290" ht="21" customHeight="1" s="15">
       <c r="A290" s="7" t="inlineStr">
@@ -7407,11 +6331,7 @@
       <c r="D290" s="5" t="n">
         <v>300803</v>
       </c>
-      <c r="E290" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E290" s="6" t="n"/>
     </row>
     <row r="291" ht="21" customHeight="1" s="15">
       <c r="A291" s="7" t="inlineStr">
@@ -7432,11 +6352,7 @@
       <c r="D291" s="5" t="n">
         <v>300633</v>
       </c>
-      <c r="E291" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E291" s="6" t="n"/>
     </row>
     <row r="292" ht="21" customHeight="1" s="15">
       <c r="A292" s="7" t="inlineStr">
@@ -7457,11 +6373,7 @@
       <c r="D292" s="5" t="n">
         <v>300613</v>
       </c>
-      <c r="E292" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E292" s="6" t="n"/>
     </row>
     <row r="293" ht="21" customHeight="1" s="15">
       <c r="A293" s="7" t="inlineStr">
@@ -7482,11 +6394,7 @@
       <c r="D293" s="5" t="n">
         <v>300242</v>
       </c>
-      <c r="E293" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E293" s="6" t="n"/>
     </row>
     <row r="294" ht="21" customHeight="1" s="15">
       <c r="A294" s="7" t="inlineStr">
@@ -7507,11 +6415,7 @@
       <c r="D294" s="5" t="n">
         <v>301302</v>
       </c>
-      <c r="E294" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E294" s="6" t="n"/>
     </row>
     <row r="295" ht="21" customHeight="1" s="15">
       <c r="A295" s="7" t="inlineStr">
@@ -7532,11 +6436,7 @@
       <c r="D295" s="5" t="n">
         <v>300662</v>
       </c>
-      <c r="E295" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E295" s="6" t="n"/>
     </row>
     <row r="296" ht="21" customHeight="1" s="15">
       <c r="A296" s="7" t="inlineStr">
@@ -7557,11 +6457,7 @@
       <c r="D296" s="5" t="n">
         <v>301304</v>
       </c>
-      <c r="E296" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E296" s="6" t="n"/>
     </row>
     <row r="297" ht="21" customHeight="1" s="15">
       <c r="A297" s="7" t="inlineStr">
@@ -7582,11 +6478,7 @@
       <c r="D297" s="5" t="n">
         <v>300139</v>
       </c>
-      <c r="E297" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E297" s="6" t="n"/>
     </row>
     <row r="298" ht="21" customHeight="1" s="15">
       <c r="A298" s="7" t="inlineStr">
@@ -7607,11 +6499,7 @@
       <c r="D298" s="5" t="n">
         <v>301085</v>
       </c>
-      <c r="E298" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E298" s="6" t="n"/>
     </row>
     <row r="299" ht="21" customHeight="1" s="15">
       <c r="A299" s="7" t="inlineStr">
@@ -7632,11 +6520,7 @@
       <c r="D299" s="5" t="n">
         <v>300142</v>
       </c>
-      <c r="E299" s="6" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E299" s="6" t="n"/>
     </row>
     <row r="300" ht="21" customHeight="1" s="15">
       <c r="A300" s="13" t="inlineStr">
@@ -7657,11 +6541,7 @@
       <c r="D300" s="10" t="n">
         <v>301414</v>
       </c>
-      <c r="E300" s="11" t="inlineStr">
-        <is>
-          <t>gültig</t>
-        </is>
-      </c>
+      <c r="E300" s="11" t="n"/>
     </row>
     <row r="301" ht="21" customHeight="1" s="15">
       <c r="A301" s="7" t="inlineStr">
